--- a/Document/Resources.xlsx
+++ b/Document/Resources.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_HKF\_dev\Repository\GSL\Document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{192E921C-F62E-42E2-9930-D0BDA9B49136}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A076B5A-1464-4711-943A-C38DB83E81D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{2B8BF1E6-E496-4F89-BDC8-54DCCB78AA27}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{2B8BF1E6-E496-4F89-BDC8-54DCCB78AA27}"/>
   </bookViews>
   <sheets>
     <sheet name="FolderStructure" sheetId="1" r:id="rId1"/>
@@ -1204,28 +1204,6 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>gsl_xsm.h</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> provides XSM shared data types among XSM modules.</t>
-    </r>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
       <t>gsl_dsm.h</t>
     </r>
     <r>
@@ -1329,6 +1307,28 @@
   </si>
   <si>
     <t>vidPsmKeepAlive</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>gsl_xsm.h</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> provides XSM shared data types among GSL modules.</t>
+    </r>
     <phoneticPr fontId="4"/>
   </si>
 </sst>
@@ -6055,8 +6055,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B33BFA01-738B-4C3B-AB43-466CFAB6F254}">
   <dimension ref="B2:H42"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="97" zoomScaleNormal="97" workbookViewId="0">
-      <selection activeCell="P10" sqref="P10"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScale="97" zoomScaleNormal="97" workbookViewId="0">
+      <selection activeCell="R24" sqref="R24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
@@ -6503,7 +6503,7 @@
       </c>
       <c r="G34" s="105"/>
       <c r="H34" s="111" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.4">
@@ -6516,7 +6516,7 @@
       </c>
       <c r="G35" s="105"/>
       <c r="H35" s="111" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.4">
@@ -6529,7 +6529,7 @@
       </c>
       <c r="G36" s="105"/>
       <c r="H36" s="111" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.4">
@@ -6542,7 +6542,7 @@
       </c>
       <c r="G37" s="105"/>
       <c r="H37" s="111" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.4">
@@ -6568,7 +6568,7 @@
       </c>
       <c r="G39" s="105"/>
       <c r="H39" s="111" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="40" spans="2:8" x14ac:dyDescent="0.4">
@@ -6594,7 +6594,7 @@
       </c>
       <c r="G41" s="105"/>
       <c r="H41" s="18" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.4">
@@ -7022,7 +7022,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{202F9C68-BA9B-415A-B4F6-E6F10680B109}">
   <dimension ref="B2:AL112"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A58" zoomScale="72" zoomScaleNormal="72" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A58" zoomScale="72" zoomScaleNormal="72" workbookViewId="0">
       <selection activeCell="N78" sqref="N78"/>
     </sheetView>
   </sheetViews>
@@ -8283,7 +8283,7 @@
       <c r="K77" s="54"/>
       <c r="L77" s="55"/>
       <c r="N77" s="42" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="U77" s="81"/>
       <c r="Z77" s="53"/>

--- a/Document/Resources.xlsx
+++ b/Document/Resources.xlsx
@@ -8,18 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_HKF\_dev\Repository\GSL\Document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A076B5A-1464-4711-943A-C38DB83E81D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB9AE5C8-47AD-4AE1-B59F-DEEEB19FCC79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{2B8BF1E6-E496-4F89-BDC8-54DCCB78AA27}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{2B8BF1E6-E496-4F89-BDC8-54DCCB78AA27}"/>
   </bookViews>
   <sheets>
     <sheet name="FolderStructure" sheetId="1" r:id="rId1"/>
-    <sheet name="PWM" sheetId="2" r:id="rId2"/>
-    <sheet name="Resources" sheetId="4" r:id="rId3"/>
-    <sheet name="SwRS" sheetId="6" r:id="rId4"/>
-    <sheet name="PackageDiagram" sheetId="7" r:id="rId5"/>
-    <sheet name="Links" sheetId="3" r:id="rId6"/>
-    <sheet name="ETC" sheetId="5" r:id="rId7"/>
+    <sheet name="Fading" sheetId="8" r:id="rId2"/>
+    <sheet name="PWM" sheetId="2" r:id="rId3"/>
+    <sheet name="Resources" sheetId="4" r:id="rId4"/>
+    <sheet name="SwRS" sheetId="6" r:id="rId5"/>
+    <sheet name="PackageDiagram" sheetId="7" r:id="rId6"/>
+    <sheet name="Links" sheetId="3" r:id="rId7"/>
+    <sheet name="ETC" sheetId="5" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="208">
   <si>
     <t>Calculation</t>
   </si>
@@ -1331,12 +1332,210 @@
     </r>
     <phoneticPr fontId="4"/>
   </si>
+  <si>
+    <t>Formula</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>u32FadeInDutyDiff</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>u32PwmMax</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>u32PwmMin</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>u32Period</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>u32FadeInCntMax</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>u32FadeInTmo</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>No shift</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>Ideal</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>Shift 2^10</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>Duty</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>Diff(Ideal)</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>FadeInCnt</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>* transit to STT_ON when the FadeInCnt is equal to FadeInTmo.</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>* transit to STT_OFF when the FadeOffCnt is equal to FadeInTmo.</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>u32FadeOffCntMax</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>u32FadeOffDutyDiff</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>u32FadeOffTmo</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <r>
+      <t>$J$2-ROUNDDOWN(ROUNDDOWN(ROUNDDOWN(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>$J$7*POWER(2,10)/$J$6,0)*$I14</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,0)/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>POWER(2,10)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,0)</t>
+    </r>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <r>
+      <t>ROUNDDOWN(ROUNDDOWN(ROUNDDOWN(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>$C$7*POWER(2,10)/$C$6</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,0)*</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>$B14</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,0)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/POWER(2,10)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,0)</t>
+    </r>
+    <phoneticPr fontId="4"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1404,8 +1603,34 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1445,6 +1670,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.39994506668294322"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39994506668294322"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1941,7 +2178,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="120">
+  <cellXfs count="130">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2286,6 +2523,22 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
@@ -6055,7 +6308,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B33BFA01-738B-4C3B-AB43-466CFAB6F254}">
   <dimension ref="B2:H42"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScale="97" zoomScaleNormal="97" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A7" zoomScale="97" zoomScaleNormal="97" workbookViewId="0">
       <selection activeCell="R24" sqref="R24"/>
     </sheetView>
   </sheetViews>
@@ -6618,6 +6871,565 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{560B12B0-C0A0-49FB-94A8-5D2FCBC75D15}">
+  <dimension ref="B2:N21"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="3.625" customWidth="1"/>
+    <col min="2" max="2" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="38.125" customWidth="1"/>
+    <col min="9" max="9" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.25" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B2" s="124" t="s">
+        <v>190</v>
+      </c>
+      <c r="C2" s="3">
+        <v>31999</v>
+      </c>
+      <c r="I2" s="125" t="s">
+        <v>190</v>
+      </c>
+      <c r="J2" s="3">
+        <v>31999</v>
+      </c>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B3" s="124" t="s">
+        <v>191</v>
+      </c>
+      <c r="C3" s="3">
+        <v>0</v>
+      </c>
+      <c r="I3" s="125" t="s">
+        <v>191</v>
+      </c>
+      <c r="J3" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B4" s="124" t="s">
+        <v>192</v>
+      </c>
+      <c r="C4" s="3">
+        <v>1</v>
+      </c>
+      <c r="I4" s="125" t="s">
+        <v>192</v>
+      </c>
+      <c r="J4" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B5" s="124" t="s">
+        <v>194</v>
+      </c>
+      <c r="C5" s="3">
+        <v>1000</v>
+      </c>
+      <c r="I5" s="125" t="s">
+        <v>205</v>
+      </c>
+      <c r="J5" s="3">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B6" s="124" t="s">
+        <v>193</v>
+      </c>
+      <c r="C6" s="3">
+        <f>C5/C4</f>
+        <v>1000</v>
+      </c>
+      <c r="I6" s="125" t="s">
+        <v>203</v>
+      </c>
+      <c r="J6" s="3">
+        <f>J5/J4</f>
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B7" s="124" t="s">
+        <v>189</v>
+      </c>
+      <c r="C7" s="3">
+        <f>C2-C3</f>
+        <v>31999</v>
+      </c>
+      <c r="I7" s="125" t="s">
+        <v>204</v>
+      </c>
+      <c r="J7" s="3">
+        <f>J2-J3</f>
+        <v>31999</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B8" s="124" t="s">
+        <v>193</v>
+      </c>
+      <c r="C8" s="3">
+        <f>ROUNDDOWN(ROUNDDOWN(C5*POWER(2,10)/C4, 0)/POWER(2,10),0)</f>
+        <v>1000</v>
+      </c>
+      <c r="I8" s="125" t="s">
+        <v>203</v>
+      </c>
+      <c r="J8" s="3">
+        <f>ROUNDDOWN(ROUNDDOWN(J5*POWER(2,10)/J4, 0)/POWER(2,10),0)</f>
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" s="128" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B9" s="126"/>
+      <c r="C9" s="127"/>
+      <c r="J9" s="127"/>
+    </row>
+    <row r="10" spans="2:14" s="128" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B10" s="126" t="s">
+        <v>188</v>
+      </c>
+      <c r="C10" s="129" t="s">
+        <v>207</v>
+      </c>
+      <c r="I10" s="126" t="s">
+        <v>188</v>
+      </c>
+      <c r="J10" s="127" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B12" s="120" t="s">
+        <v>200</v>
+      </c>
+      <c r="C12" s="121" t="s">
+        <v>197</v>
+      </c>
+      <c r="D12" s="121"/>
+      <c r="E12" s="121" t="s">
+        <v>195</v>
+      </c>
+      <c r="F12" s="121"/>
+      <c r="G12" s="121" t="s">
+        <v>196</v>
+      </c>
+      <c r="I12" s="120" t="s">
+        <v>200</v>
+      </c>
+      <c r="J12" s="121" t="s">
+        <v>197</v>
+      </c>
+      <c r="K12" s="121"/>
+      <c r="L12" s="121" t="s">
+        <v>195</v>
+      </c>
+      <c r="M12" s="121"/>
+      <c r="N12" s="121" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B13" s="122"/>
+      <c r="C13" s="121" t="s">
+        <v>198</v>
+      </c>
+      <c r="D13" s="121" t="s">
+        <v>199</v>
+      </c>
+      <c r="E13" s="121" t="s">
+        <v>198</v>
+      </c>
+      <c r="F13" s="121" t="s">
+        <v>199</v>
+      </c>
+      <c r="G13" s="121"/>
+      <c r="I13" s="122"/>
+      <c r="J13" s="121" t="s">
+        <v>198</v>
+      </c>
+      <c r="K13" s="121" t="s">
+        <v>199</v>
+      </c>
+      <c r="L13" s="121" t="s">
+        <v>198</v>
+      </c>
+      <c r="M13" s="121" t="s">
+        <v>199</v>
+      </c>
+      <c r="N13" s="121"/>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B14" s="3">
+        <v>1</v>
+      </c>
+      <c r="C14" s="3">
+        <f>ROUNDDOWN(ROUNDDOWN(ROUNDDOWN($C$7*POWER(2,10)/$C$6,0)*$B14,0)/POWER(2,10),0)</f>
+        <v>31</v>
+      </c>
+      <c r="D14" s="3">
+        <f>$G14-C14</f>
+        <v>0.99899999999999878</v>
+      </c>
+      <c r="E14" s="3">
+        <f>ROUNDDOWN($C$7/$C$6,0)*$B14</f>
+        <v>31</v>
+      </c>
+      <c r="F14" s="3">
+        <f>$G14-E14</f>
+        <v>0.99899999999999878</v>
+      </c>
+      <c r="G14" s="3">
+        <f>$C$7/$C$6*$B14</f>
+        <v>31.998999999999999</v>
+      </c>
+      <c r="I14" s="3">
+        <v>1</v>
+      </c>
+      <c r="J14" s="3">
+        <f>$J$2-ROUNDDOWN(ROUNDDOWN(ROUNDDOWN($J$7*POWER(2,10)/$J$6,0)*$I14,0)/POWER(2,10),0)</f>
+        <v>31984</v>
+      </c>
+      <c r="K14" s="3">
+        <f>$N14-J14</f>
+        <v>-0.99950000000171713</v>
+      </c>
+      <c r="L14" s="3">
+        <f>$J$2-ROUNDDOWN($J$7/$J$6,0)*$I14</f>
+        <v>31984</v>
+      </c>
+      <c r="M14" s="3">
+        <f>N$14-L14</f>
+        <v>-0.99950000000171713</v>
+      </c>
+      <c r="N14" s="3">
+        <f>$J$2-$J$7/$J$6*$I14</f>
+        <v>31983.000499999998</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B15" s="3">
+        <v>2</v>
+      </c>
+      <c r="C15" s="3">
+        <f t="shared" ref="C14:C20" si="0">ROUNDDOWN(ROUNDDOWN(ROUNDDOWN($C$7*POWER(2,10)/$C$6,0)*$B15,0)/POWER(2,10),0)</f>
+        <v>63</v>
+      </c>
+      <c r="D15" s="3">
+        <f t="shared" ref="D15:F20" si="1">$G15-C15</f>
+        <v>0.99799999999999756</v>
+      </c>
+      <c r="E15" s="3">
+        <f t="shared" ref="E15:E20" si="2">ROUNDDOWN($C$7/$C$6,0)*$B15</f>
+        <v>62</v>
+      </c>
+      <c r="F15" s="3">
+        <f t="shared" si="1"/>
+        <v>1.9979999999999976</v>
+      </c>
+      <c r="G15" s="3">
+        <f t="shared" ref="G15:G20" si="3">$C$7/$C$6*$B15</f>
+        <v>63.997999999999998</v>
+      </c>
+      <c r="I15" s="3">
+        <v>2</v>
+      </c>
+      <c r="J15" s="3">
+        <f t="shared" ref="J15:J20" si="4">$J$2-ROUNDDOWN(ROUNDDOWN(ROUNDDOWN($J$7*POWER(2,10)/$J$6,0)*$I15,0)/POWER(2,10),0)</f>
+        <v>31968</v>
+      </c>
+      <c r="K15" s="3">
+        <f t="shared" ref="K15:K20" si="5">$N15-J15</f>
+        <v>-0.99899999999979627</v>
+      </c>
+      <c r="L15" s="3">
+        <f t="shared" ref="L15:L20" si="6">$J$2-ROUNDDOWN($J$7/$J$6,0)*$I15</f>
+        <v>31969</v>
+      </c>
+      <c r="M15" s="3">
+        <f t="shared" ref="M15:M20" si="7">N$14-L15</f>
+        <v>14.000499999998283</v>
+      </c>
+      <c r="N15" s="3">
+        <f t="shared" ref="N15:N20" si="8">$J$2-$J$7/$J$6*$I15</f>
+        <v>31967.001</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B16" s="3">
+        <v>3</v>
+      </c>
+      <c r="C16" s="3">
+        <f t="shared" si="0"/>
+        <v>95</v>
+      </c>
+      <c r="D16" s="3">
+        <f t="shared" si="1"/>
+        <v>0.99699999999999989</v>
+      </c>
+      <c r="E16" s="3">
+        <f t="shared" si="2"/>
+        <v>93</v>
+      </c>
+      <c r="F16" s="3">
+        <f t="shared" si="1"/>
+        <v>2.9969999999999999</v>
+      </c>
+      <c r="G16" s="3">
+        <f t="shared" si="3"/>
+        <v>95.997</v>
+      </c>
+      <c r="I16" s="3">
+        <v>3</v>
+      </c>
+      <c r="J16" s="3">
+        <f t="shared" si="4"/>
+        <v>31952</v>
+      </c>
+      <c r="K16" s="3">
+        <f t="shared" si="5"/>
+        <v>-0.9985000000015134</v>
+      </c>
+      <c r="L16" s="3">
+        <f t="shared" si="6"/>
+        <v>31954</v>
+      </c>
+      <c r="M16" s="3">
+        <f t="shared" si="7"/>
+        <v>29.000499999998283</v>
+      </c>
+      <c r="N16" s="3">
+        <f t="shared" si="8"/>
+        <v>31951.001499999998</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B17" s="3">
+        <v>4</v>
+      </c>
+      <c r="C17" s="3">
+        <f t="shared" si="0"/>
+        <v>127</v>
+      </c>
+      <c r="D17" s="3">
+        <f t="shared" si="1"/>
+        <v>0.99599999999999511</v>
+      </c>
+      <c r="E17" s="3">
+        <f t="shared" si="2"/>
+        <v>124</v>
+      </c>
+      <c r="F17" s="3">
+        <f t="shared" si="1"/>
+        <v>3.9959999999999951</v>
+      </c>
+      <c r="G17" s="3">
+        <f t="shared" si="3"/>
+        <v>127.996</v>
+      </c>
+      <c r="I17" s="3">
+        <v>4</v>
+      </c>
+      <c r="J17" s="3">
+        <f t="shared" si="4"/>
+        <v>31936</v>
+      </c>
+      <c r="K17" s="3">
+        <f t="shared" si="5"/>
+        <v>-0.99799999999959255</v>
+      </c>
+      <c r="L17" s="3">
+        <f t="shared" si="6"/>
+        <v>31939</v>
+      </c>
+      <c r="M17" s="3">
+        <f t="shared" si="7"/>
+        <v>44.000499999998283</v>
+      </c>
+      <c r="N17" s="3">
+        <f t="shared" si="8"/>
+        <v>31935.002</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B18" s="3">
+        <v>5</v>
+      </c>
+      <c r="C18" s="3">
+        <f t="shared" si="0"/>
+        <v>159</v>
+      </c>
+      <c r="D18" s="3">
+        <f t="shared" si="1"/>
+        <v>0.99500000000000455</v>
+      </c>
+      <c r="E18" s="3">
+        <f t="shared" si="2"/>
+        <v>155</v>
+      </c>
+      <c r="F18" s="3">
+        <f t="shared" si="1"/>
+        <v>4.9950000000000045</v>
+      </c>
+      <c r="G18" s="3">
+        <f t="shared" si="3"/>
+        <v>159.995</v>
+      </c>
+      <c r="I18" s="3">
+        <v>5</v>
+      </c>
+      <c r="J18" s="3">
+        <f t="shared" si="4"/>
+        <v>31920</v>
+      </c>
+      <c r="K18" s="3">
+        <f t="shared" si="5"/>
+        <v>-0.99750000000130967</v>
+      </c>
+      <c r="L18" s="3">
+        <f t="shared" si="6"/>
+        <v>31924</v>
+      </c>
+      <c r="M18" s="3">
+        <f t="shared" si="7"/>
+        <v>59.000499999998283</v>
+      </c>
+      <c r="N18" s="3">
+        <f t="shared" si="8"/>
+        <v>31919.002499999999</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B19" s="3">
+        <v>999</v>
+      </c>
+      <c r="C19" s="3">
+        <f t="shared" si="0"/>
+        <v>31966</v>
+      </c>
+      <c r="D19" s="3">
+        <f t="shared" si="1"/>
+        <v>1.0010000000002037</v>
+      </c>
+      <c r="E19" s="3">
+        <f t="shared" si="2"/>
+        <v>30969</v>
+      </c>
+      <c r="F19" s="3">
+        <f t="shared" si="1"/>
+        <v>998.0010000000002</v>
+      </c>
+      <c r="G19" s="3">
+        <f t="shared" si="3"/>
+        <v>31967.001</v>
+      </c>
+      <c r="I19" s="3">
+        <v>1000</v>
+      </c>
+      <c r="J19" s="3">
+        <f t="shared" si="4"/>
+        <v>16000</v>
+      </c>
+      <c r="K19" s="3">
+        <f t="shared" si="5"/>
+        <v>-0.5</v>
+      </c>
+      <c r="L19" s="3">
+        <f t="shared" si="6"/>
+        <v>16999</v>
+      </c>
+      <c r="M19" s="3">
+        <f t="shared" si="7"/>
+        <v>14984.000499999998</v>
+      </c>
+      <c r="N19" s="3">
+        <f t="shared" si="8"/>
+        <v>15999.5</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B20" s="3">
+        <v>1000</v>
+      </c>
+      <c r="C20" s="3">
+        <f t="shared" si="0"/>
+        <v>31998</v>
+      </c>
+      <c r="D20" s="3">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E20" s="3">
+        <f t="shared" si="2"/>
+        <v>31000</v>
+      </c>
+      <c r="F20" s="3">
+        <f t="shared" si="1"/>
+        <v>999</v>
+      </c>
+      <c r="G20" s="3">
+        <f t="shared" si="3"/>
+        <v>31999</v>
+      </c>
+      <c r="I20" s="3">
+        <v>2000</v>
+      </c>
+      <c r="J20" s="3">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="K20" s="3">
+        <f t="shared" si="5"/>
+        <v>-1</v>
+      </c>
+      <c r="L20" s="3">
+        <f t="shared" si="6"/>
+        <v>1999</v>
+      </c>
+      <c r="M20" s="3">
+        <f t="shared" si="7"/>
+        <v>29984.000499999998</v>
+      </c>
+      <c r="N20" s="3">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B21" s="123" t="s">
+        <v>201</v>
+      </c>
+      <c r="I21" s="123" t="s">
+        <v>202</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{777F88CA-E307-47AA-93AB-8788864B7E3B}">
   <dimension ref="B2:E25"/>
   <sheetViews>
@@ -6787,7 +7599,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A3B76BE-7DC8-4B2A-A546-5F01BEDB543D}">
   <dimension ref="B2:F15"/>
   <sheetViews>
@@ -6995,7 +7807,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64D89BDA-6F4E-4ADC-8ADD-F95175949E09}">
   <dimension ref="B2"/>
   <sheetViews>
@@ -7018,7 +7830,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{202F9C68-BA9B-415A-B4F6-E6F10680B109}">
   <dimension ref="B2:AL112"/>
   <sheetViews>
@@ -8929,7 +9741,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DB75EB0-4C9A-4A63-B70A-F5FCA9A84744}">
   <dimension ref="B2:C10"/>
   <sheetViews>
@@ -9027,7 +9839,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2602AF2B-4CA4-4F72-9D8E-10355B2C37E6}">
   <dimension ref="B2:H13"/>
   <sheetViews>

--- a/Document/Resources.xlsx
+++ b/Document/Resources.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20415"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_HKF\_dev\Repository\GSL\Document\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_dev\Repository\GSL\Document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB9AE5C8-47AD-4AE1-B59F-DEEEB19FCC79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D664E693-9518-429A-8C08-D34DA0FC18A2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{2B8BF1E6-E496-4F89-BDC8-54DCCB78AA27}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{2B8BF1E6-E496-4F89-BDC8-54DCCB78AA27}"/>
   </bookViews>
   <sheets>
     <sheet name="FolderStructure" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="175">
   <si>
     <t>Calculation</t>
   </si>
@@ -124,7 +124,7 @@
         <vertAlign val="subscript"/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -135,7 +135,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -319,10 +319,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>DSM</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>vidGslInitCallback</t>
     <phoneticPr fontId="4"/>
   </si>
@@ -355,22 +351,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>BPM</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>vidBpmInit</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>vidBpmProc</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>QUEUE</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>DIAG</t>
     <phoneticPr fontId="4"/>
   </si>
@@ -387,10 +367,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>vidDiagTusAccumulate</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>vidBsmInit</t>
     <phoneticPr fontId="4"/>
   </si>
@@ -399,14 +375,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>vidDsmInit</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>vidDsmSrvc</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>vidLsmInit</t>
     <phoneticPr fontId="4"/>
   </si>
@@ -447,38 +415,14 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>Libs</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>NOOS</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>XPM</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>XSM</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>Src</t>
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>gsl_bpm.h</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>gsl_psm.h</t>
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>gsl_xsm.h</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>gsl_bsm.h</t>
     <phoneticPr fontId="4"/>
   </si>
@@ -487,26 +431,14 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>gsl_dsm.h</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>gsl_bsm.c</t>
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>gsl_dsm.c</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>gsl_lsm.c</t>
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>gsl_bpm.c</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>gsl_psm.c</t>
     <phoneticPr fontId="4"/>
   </si>
@@ -515,10 +447,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>DIAG</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>gsl_diag.h</t>
     <phoneticPr fontId="4"/>
   </si>
@@ -536,22 +464,6 @@
   </si>
   <si>
     <t>gsl_queue.c</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>gsl_dpm.h</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>gsl_ipm.h</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>gsl_xpm.h</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>gsl_ipm.c</t>
     <phoneticPr fontId="4"/>
   </si>
   <si>
@@ -608,29 +520,6 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>gsl_def.h</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> defines GSL types.
-As the GSL is aims to be platform independent static library, gsl_def.h may change according to the UA environment, e.g., tool chain.</t>
-    </r>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
       <t>gsl_feature.h</t>
     </r>
     <r>
@@ -666,6 +555,536 @@
   <si>
     <t>Each of files in this folder provides interfaces among GSL modules.</t>
     <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>gsl_queue.h</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> provides simple queue APIs, e.g, vidQueEnqueue, pvQueDequeue.</t>
+    </r>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>u32DiagCntCallback</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>u32DiagCntPrdCallback</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>vidDiagTraceCallback</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>gsl_queue.c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> implements simple queue features and interfaces.</t>
+    </r>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>Each of files in this folder implements IPC  features and interfaces.</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>gsl.c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> implements GSL APIs provided through gsl_api.h to UA.</t>
+    </r>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>Each of files in this folder provides interfaces between GSL and UA (User Application).</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>vidDiagTrace</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>vidQueEnqueue</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>vidQueDequeue</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>Formula</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>u32FadeInDutyDiff</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>u32PwmMax</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>u32PwmMin</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>u32Period</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>u32FadeInCntMax</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>u32FadeInTmo</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>No shift</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>Ideal</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>Shift 2^10</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>Duty</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>Diff(Ideal)</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>FadeInCnt</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>* transit to STT_ON when the FadeInCnt is equal to FadeInTmo.</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>* transit to STT_OFF when the FadeOffCnt is equal to FadeInTmo.</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>u32FadeOffCntMax</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>u32FadeOffDutyDiff</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>u32FadeOffTmo</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <r>
+      <t>$J$2-ROUNDDOWN(ROUNDDOWN(ROUNDDOWN(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>$J$7*POWER(2,10)/$J$6,0)*$I14</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,0)/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>POWER(2,10)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,0)</t>
+    </r>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <r>
+      <t>ROUNDDOWN(ROUNDDOWN(ROUNDDOWN(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>$C$7*POWER(2,10)/$C$6</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,0)*</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>$B14</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,0)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/POWER(2,10)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,0)</t>
+    </r>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>PSM</t>
+  </si>
+  <si>
+    <t>TPM</t>
+  </si>
+  <si>
+    <t>gsl_tpm.h</t>
+  </si>
+  <si>
+    <t>gsl_tpm.c</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">PSM </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>(Periodic Service Manager) provides periodic services,
+i.e., BSM (Button Service Manager), LSM(LED Service Manager).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">IPC </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>(Inter Process Communication) provides communication between GSL modules.
+Time consuming requests, e.g., serial communication, shall be done in thread with IPC interfaces.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>gsl_psm.h</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> provides PSM interfaces, e.g., vidPsmInit, vidPsmSrvc, etc.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>gsl_bsm.h</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> provides BSM interfaces.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>gsl_lsm.h</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> provides LSM interfaces.</t>
+    </r>
+  </si>
+  <si>
+    <t>Each of files in this folder implements DIAG interfaces and UA callbacks.</t>
+  </si>
+  <si>
+    <t>Each of files in this folder implements PSM features and interfaces.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>gsl_psm.c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> implements PSM features and interfaces, e.g., vidPsmInit, vidPsmSrvc, etc.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>TPM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (Thread Process Manager) provide polling processes those are processed in the main loop of UA.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>gsl_tpm.h</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> provides TPM interfaces.</t>
+    </r>
+  </si>
+  <si>
+    <t>Each of files in this folder implements TPM features and interfaces.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>gsl_tpm.c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> implements TPM features and interfaces.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>gsl_def.h</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> defines GSL types.
+As the GSL is a platform independent static library, gsl_def.h may change according to the UA environment.</t>
+    </r>
   </si>
   <si>
     <r>
@@ -687,418 +1106,6 @@
       </rPr>
       <t xml:space="preserve"> provides diagnostic method, e.g., vidDiagTrace, vidDiagKeepAlive, etc.</t>
     </r>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>gsl_queue.h</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> provides simple queue APIs, e.g, vidQueEnqueue, pvQueDequeue.</t>
-    </r>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>Each of files in this folder implements DIAG interfaces and UA callbacks.</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>Each of files in this folder provides IPC interfaces among GSL modules</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>Each of files in this folder provides NOOS interfaces among GSL modules</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>NOOS</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> (NO Operating System) provides OS-like features, e.g., periodic service, background process.</t>
-    </r>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>gsl_bpm.h</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> provides BPM (Background Process Manager) interfaces, e.g., vidBpmInit, vidBpmProc, etc.</t>
-    </r>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>gsl_psm.h</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> provides PSM (Periodic Service Manager) interfaces, e.g., vidPsmInit, vidPsmSrvc, etc.</t>
-    </r>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>vidDpmInit</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>IPM</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>vidIpmInit</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>vidIpmProc</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>DPM</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>vidDpmProc</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>u32DiagCntCallback</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>u32DiagCntPrdCallback</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>vidDiagTraceCallback</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>u64DiagGetTusTotal</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>gsl_ipm.h</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> provides IPM (Idle Process Manager) interfaces.</t>
-    </r>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>gsl_dpm.c</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>gsl_dpm.c</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> implements DPM features and interfaces.</t>
-    </r>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>gsl_ipm.c</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> implements IPM features and interfaces.</t>
-    </r>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>gsl_bpm.c</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> implements BPM features and interfaces, e.g., vidBpmInit, vidBpmProc, etc.</t>
-    </r>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>gsl_queue.c</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> implements simple queue features and interfaces.</t>
-    </r>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>Each of files in this folder implements IPC  features and interfaces.</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Libs</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> provide GSL features as an platform independent GSL features.</t>
-    </r>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">IPC </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>(Inter Process Communication) provides communication between ISR (Interrupt Service Routine) and Thread, i.e., background process.
-Time consuming requests, e.g., serial communication, E2P manipulation, from ISR shall be done in thread with IPC interfaces.</t>
-    </r>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>Each of files in this folder implements NOOS features and interfaces.</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>Each of files in this folder implements XPM features and interfaces.</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>gsl_dsm.c</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> implements DSM features and interfaces.</t>
-    </r>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>Each of files in this folder implements XSM features and interfaces.</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>XPM</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> (eXtended Process Manager) provide polling processes as part of BPM.</t>
-    </r>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>XSM</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> (exTended Service Manager) provides button, LED, Diag services as part of PSM.</t>
-    </r>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>gsl.c</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> implements GSL APIs provided through gsl_api.h to UA.</t>
-    </r>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>Each of files in this folder provides interfaces between GSL and UA (User Application).</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>vidDiagTrace</t>
-    <phoneticPr fontId="4"/>
   </si>
   <si>
     <r>
@@ -1118,149 +1125,20 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> implements DIAG interfaces and UA callbacks as week functions.</t>
+      <t xml:space="preserve"> implements DIAG interfaces and pseduo UA callbacks as week functions.</t>
     </r>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>vidQueEnqueue</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>vidQueDequeue</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>gsl_psm.c</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> implements PSM features and interfaces, e.g., vidPsmInit, vidPsmSrvc, etc.</t>
-    </r>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>gsl_dpm.h</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> provides DPM (Diagnostic Process Manager) interfaces, e.g., vidDpmInit, vidDpmProc, etc.</t>
-    </r>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>gsl_xpm.h</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> provides XPM shared data types among XPM modules.</t>
-    </r>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>gsl_dsm.h</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> provides DSM (Diagnostic Service Manager) interfaces.</t>
-    </r>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>gsl_bsm.h</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> provides BSM (Button Service Manager) interfaces.</t>
-    </r>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>gsl_lsm.h</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> provides LSM (LED Service Manager) interfaces.</t>
-    </r>
-    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>vidDiagKeepAlive</t>
+  </si>
+  <si>
+    <t>vidTpmInit</t>
+  </si>
+  <si>
+    <t>vidTpmProc</t>
+  </si>
+  <si>
+    <t>IPC</t>
   </si>
   <si>
     <r>
@@ -1282,7 +1160,6 @@
       </rPr>
       <t xml:space="preserve"> implements BSM features and interfaces with its internal state machine to control button states.</t>
     </r>
-    <phoneticPr fontId="4"/>
   </si>
   <si>
     <r>
@@ -1304,242 +1181,26 @@
       </rPr>
       <t xml:space="preserve"> implements LSM features and interfaces with its internal state machine to control LED states.</t>
     </r>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>vidPsmKeepAlive</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>gsl_xsm.h</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> provides XSM shared data types among GSL modules.</t>
-    </r>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>Formula</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>u32FadeInDutyDiff</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>u32PwmMax</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>u32PwmMin</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>u32Period</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>u32FadeInCntMax</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>u32FadeInTmo</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>No shift</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>Ideal</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>Shift 2^10</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>Duty</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>Diff(Ideal)</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>FadeInCnt</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>* transit to STT_ON when the FadeInCnt is equal to FadeInTmo.</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>* transit to STT_OFF when the FadeOffCnt is equal to FadeInTmo.</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>u32FadeOffCntMax</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>u32FadeOffDutyDiff</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>u32FadeOffTmo</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <r>
-      <t>$J$2-ROUNDDOWN(ROUNDDOWN(ROUNDDOWN(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>$J$7*POWER(2,10)/$J$6,0)*$I14</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,0)/</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>POWER(2,10)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,0)</t>
-    </r>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <r>
-      <t>ROUNDDOWN(ROUNDDOWN(ROUNDDOWN(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>$C$7*POWER(2,10)/$C$6</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,0)*</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>$B14</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,0)</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>/POWER(2,10)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,0)</t>
-    </r>
-    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>Each of files in this folder provides TPM interfaces among GSL modules.</t>
+  </si>
+  <si>
+    <t>Each of files in this folder provides PSM interfaces among GSL modules.</t>
+  </si>
+  <si>
+    <t>Each of files in this folder provides IPC interfaces among GSL modules.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1547,7 +1208,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1556,7 +1217,7 @@
       <vertAlign val="subscript"/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1564,13 +1225,13 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -1607,7 +1268,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -1616,7 +1277,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -1624,7 +1285,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -1686,7 +1347,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="44">
+  <borders count="36">
     <border>
       <left/>
       <right/>
@@ -2029,101 +1690,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="dotted">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="dotted">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="dotted">
-        <color auto="1"/>
-      </right>
-      <top style="dotted">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="dotted">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="dotted">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="dotted">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="dotted">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="dotted">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="dotted">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="dotted">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="dotted">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="dotted">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color auto="1"/>
       </left>
@@ -2173,6 +1739,15 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="double">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -2427,36 +2002,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2491,9 +2036,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2502,13 +2044,13 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2520,7 +2062,7 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="8" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2539,6 +2081,39 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
@@ -2689,13 +2264,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>20291</xdr:colOff>
+      <xdr:colOff>20289</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>27332</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>604629</xdr:colOff>
+      <xdr:colOff>321469</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>41413</xdr:rowOff>
     </xdr:to>
@@ -2712,8 +2287,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="707748" y="839028"/>
-          <a:ext cx="7458903" cy="4337602"/>
+          <a:off x="627508" y="741707"/>
+          <a:ext cx="6373367" cy="3443081"/>
           <a:chOff x="0" y="0"/>
           <a:chExt cx="7305675" cy="3724275"/>
         </a:xfrm>
@@ -2824,7 +2399,7 @@
               <a:buNone/>
             </a:pPr>
             <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="1" u="sng" kern="1200">
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1500" b="1" u="sng" kern="1200">
                 <a:solidFill>
                   <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
@@ -2832,7 +2407,7 @@
               </a:rPr>
               <a:t>User Application</a:t>
             </a:r>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000" b="1" u="sng" kern="1200">
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1500" b="1" u="sng" kern="1200">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
@@ -2870,8 +2445,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="947540" y="1776308"/>
-          <a:ext cx="916057" cy="554852"/>
+          <a:off x="867302" y="1480205"/>
+          <a:ext cx="835820" cy="455460"/>
           <a:chOff x="182641" y="931068"/>
           <a:chExt cx="1095851" cy="631380"/>
         </a:xfrm>
@@ -2994,7 +2569,7 @@
               <a:buNone/>
             </a:pPr>
             <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1" kern="1200">
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="1" kern="1200">
                 <a:solidFill>
                   <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
@@ -3017,7 +2592,7 @@
               <a:buNone/>
             </a:pPr>
             <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1" kern="1200">
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="1" kern="1200">
                 <a:solidFill>
                   <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
@@ -3025,7 +2600,7 @@
               </a:rPr>
               <a:t>Callback</a:t>
             </a:r>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1" kern="1200">
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" b="1" kern="1200">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
@@ -3063,8 +2638,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="947540" y="2440441"/>
-          <a:ext cx="916057" cy="554852"/>
+          <a:off x="867302" y="2044946"/>
+          <a:ext cx="835820" cy="405765"/>
           <a:chOff x="182641" y="1588989"/>
           <a:chExt cx="1095851" cy="631380"/>
         </a:xfrm>
@@ -3187,7 +2762,7 @@
               <a:buNone/>
             </a:pPr>
             <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1" kern="1200">
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="1" kern="1200">
                 <a:solidFill>
                   <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
@@ -3210,7 +2785,7 @@
               <a:buNone/>
             </a:pPr>
             <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1" kern="1200">
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="1" kern="1200">
                 <a:solidFill>
                   <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
@@ -3218,7 +2793,7 @@
               </a:rPr>
               <a:t>Entry</a:t>
             </a:r>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1" kern="1200">
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" b="1" kern="1200">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
@@ -3256,8 +2831,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="947540" y="3104575"/>
-          <a:ext cx="916057" cy="552781"/>
+          <a:off x="867302" y="2559993"/>
+          <a:ext cx="835820" cy="443865"/>
           <a:chOff x="182641" y="2246911"/>
           <a:chExt cx="1095851" cy="631380"/>
         </a:xfrm>
@@ -3380,7 +2955,7 @@
               <a:buNone/>
             </a:pPr>
             <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1" kern="1200">
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="1" kern="1200">
                 <a:solidFill>
                   <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
@@ -3403,7 +2978,7 @@
               <a:buNone/>
             </a:pPr>
             <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1" kern="1200">
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="1" kern="1200">
                 <a:solidFill>
                   <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
@@ -3411,7 +2986,7 @@
               </a:rPr>
               <a:t>Main</a:t>
             </a:r>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1" kern="1200">
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" b="1" kern="1200">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
@@ -3449,8 +3024,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="947540" y="3768708"/>
-          <a:ext cx="916057" cy="552781"/>
+          <a:off x="867302" y="3075040"/>
+          <a:ext cx="835820" cy="453389"/>
           <a:chOff x="182641" y="2904832"/>
           <a:chExt cx="1095851" cy="631380"/>
         </a:xfrm>
@@ -3573,7 +3148,7 @@
               <a:buNone/>
             </a:pPr>
             <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1" kern="1200">
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="1" kern="1200">
                 <a:solidFill>
                   <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
@@ -3596,7 +3171,7 @@
               <a:buNone/>
             </a:pPr>
             <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1" kern="1200">
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="1" kern="1200">
                 <a:solidFill>
                   <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
@@ -3604,7 +3179,7 @@
               </a:rPr>
               <a:t>ISR</a:t>
             </a:r>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1" kern="1200">
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" b="1" kern="1200">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
@@ -3619,15 +3194,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>191741</xdr:colOff>
+      <xdr:colOff>191740</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>3830</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>285324</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>231642</xdr:rowOff>
+      <xdr:colOff>29765</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>3042</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -3642,8 +3217,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2254111" y="1776308"/>
-          <a:ext cx="5593235" cy="2629769"/>
+          <a:off x="2013396" y="1480205"/>
+          <a:ext cx="4695775" cy="2094712"/>
           <a:chOff x="1461135" y="931068"/>
           <a:chExt cx="5661898" cy="2606992"/>
         </a:xfrm>
@@ -3754,7 +3329,7 @@
               <a:buNone/>
             </a:pPr>
             <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="1" u="sng" kern="1200">
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1500" b="1" u="sng" kern="1200">
                 <a:solidFill>
                   <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
@@ -3762,7 +3337,7 @@
               </a:rPr>
               <a:t>GSL</a:t>
             </a:r>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000" b="1" u="sng" kern="1200">
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1500" b="1" u="sng" kern="1200">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
@@ -3800,8 +3375,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2447094" y="2697039"/>
-          <a:ext cx="916057" cy="369901"/>
+          <a:off x="2206380" y="2242324"/>
+          <a:ext cx="835820" cy="280034"/>
           <a:chOff x="1602682" y="1843516"/>
           <a:chExt cx="1132379" cy="475763"/>
         </a:xfrm>
@@ -3969,8 +3544,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2447094" y="3197785"/>
-          <a:ext cx="916057" cy="369901"/>
+          <a:off x="2206380" y="2615103"/>
+          <a:ext cx="835820" cy="308610"/>
           <a:chOff x="1602682" y="2354059"/>
           <a:chExt cx="1132379" cy="475763"/>
         </a:xfrm>
@@ -4138,8 +3713,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2447094" y="3728479"/>
-          <a:ext cx="916057" cy="367831"/>
+          <a:off x="2206380" y="3034811"/>
+          <a:ext cx="835820" cy="318135"/>
           <a:chOff x="1602682" y="2864603"/>
           <a:chExt cx="1132379" cy="475763"/>
         </a:xfrm>
@@ -4284,13 +3859,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>187660</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>222595</xdr:rowOff>
+      <xdr:colOff>300403</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>3520</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>102682</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>375985</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>45429</xdr:rowOff>
     </xdr:to>
@@ -4307,8 +3882,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3624943" y="2715660"/>
-          <a:ext cx="4039761" cy="1504204"/>
+          <a:off x="3336497" y="2241895"/>
+          <a:ext cx="3111676" cy="1184909"/>
           <a:chOff x="2885741" y="1862137"/>
           <a:chExt cx="4054649" cy="1489710"/>
         </a:xfrm>
@@ -4380,7 +3955,7 @@
         <xdr:spPr>
           <a:xfrm>
             <a:off x="2931555" y="1907951"/>
-            <a:ext cx="3963021" cy="1398082"/>
+            <a:ext cx="3963022" cy="1398081"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -4418,15 +3993,6 @@
               </a:spcAft>
               <a:buNone/>
             </a:pPr>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="1" u="sng" kern="1200">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-              </a:rPr>
-              <a:t>Libs</a:t>
-            </a:r>
             <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000" b="1" u="sng" kern="1200">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
@@ -4442,185 +4008,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>313186</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>178590</xdr:rowOff>
+      <xdr:colOff>419915</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>186877</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>313187</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>12855</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="15" name="グループ化 14">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4438A7CF-BE61-C850-A259-83D573B00926}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="3750469" y="3392242"/>
-          <a:ext cx="687457" cy="554852"/>
-          <a:chOff x="2987107" y="2532507"/>
-          <a:chExt cx="752327" cy="670369"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="28" name="四角形: 角を丸くする 27">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{62D3D66E-2155-9B62-B6CA-AA2D76FB65D8}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="2987107" y="2532507"/>
-            <a:ext cx="752327" cy="670369"/>
-          </a:xfrm>
-          <a:prstGeom prst="roundRect">
-            <a:avLst>
-              <a:gd name="adj" fmla="val 10500"/>
-            </a:avLst>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="accent3">
-              <a:lumMod val="60000"/>
-              <a:lumOff val="40000"/>
-              <a:alpha val="90000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:ln>
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="lt1">
-              <a:alpha val="90000"/>
-              <a:hueOff val="0"/>
-              <a:satOff val="0"/>
-              <a:lumOff val="0"/>
-              <a:alphaOff val="0"/>
-            </a:schemeClr>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1">
-              <a:hueOff val="0"/>
-              <a:satOff val="0"/>
-              <a:lumOff val="0"/>
-              <a:alphaOff val="0"/>
-            </a:schemeClr>
-          </a:fontRef>
-        </xdr:style>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="29" name="四角形: 角を丸くする 24">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB9505E6-5F03-7B66-8001-0D68D92366AF}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr txBox="1"/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="3007723" y="2553123"/>
-            <a:ext cx="711095" cy="629137"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1">
-              <a:hueOff val="0"/>
-              <a:satOff val="0"/>
-              <a:lumOff val="0"/>
-              <a:alphaOff val="0"/>
-            </a:schemeClr>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="53340" tIns="53340" rIns="53340" bIns="53340" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
-            <a:noAutofit/>
-          </a:bodyPr>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="622300">
-              <a:lnSpc>
-                <a:spcPct val="90000"/>
-              </a:lnSpc>
-              <a:spcBef>
-                <a:spcPct val="0"/>
-              </a:spcBef>
-              <a:spcAft>
-                <a:spcPct val="35000"/>
-              </a:spcAft>
-              <a:buNone/>
-            </a:pPr>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1" kern="1200">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-              </a:rPr>
-              <a:t>NOOS</a:t>
-            </a:r>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1" kern="1200">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-            </a:endParaRPr>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>401118</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>178590</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>401117</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>12855</xdr:rowOff>
+      <xdr:colOff>419914</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>21142</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -4635,8 +4031,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4525857" y="3392242"/>
-          <a:ext cx="687456" cy="554852"/>
+          <a:off x="3456009" y="2615752"/>
+          <a:ext cx="607218" cy="405765"/>
           <a:chOff x="3760838" y="2532507"/>
           <a:chExt cx="752327" cy="670369"/>
         </a:xfrm>
@@ -4759,15 +4155,15 @@
               <a:buNone/>
             </a:pPr>
             <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1" kern="1200">
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="1" kern="1200">
                 <a:solidFill>
                   <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
               </a:rPr>
-              <a:t>XSM</a:t>
+              <a:t>PSM</a:t>
             </a:r>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1" kern="1200">
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" b="1" kern="1200">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
@@ -4781,16 +4177,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>489048</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>178590</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>550346</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>186877</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>489049</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>12855</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>550346</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>21142</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -4805,8 +4201,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5301244" y="3392242"/>
-          <a:ext cx="687457" cy="554852"/>
+          <a:off x="4193659" y="2615752"/>
+          <a:ext cx="607218" cy="405765"/>
           <a:chOff x="4534569" y="2532507"/>
           <a:chExt cx="752327" cy="670369"/>
         </a:xfrm>
@@ -4884,8 +4280,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="4555185" y="2553123"/>
-            <a:ext cx="711095" cy="629137"/>
+            <a:off x="4564257" y="2553124"/>
+            <a:ext cx="711098" cy="629137"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -4929,15 +4325,15 @@
               <a:buNone/>
             </a:pPr>
             <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1" kern="1200">
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="1" kern="1200">
                 <a:solidFill>
                   <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
               </a:rPr>
-              <a:t>XPM</a:t>
+              <a:t>TPM</a:t>
             </a:r>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1" kern="1200">
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" b="1" kern="1200">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
@@ -4952,15 +4348,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>576980</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>178590</xdr:rowOff>
+      <xdr:colOff>61886</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>186877</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>576979</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>12855</xdr:rowOff>
+      <xdr:colOff>61885</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>21142</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -4975,8 +4371,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="6076632" y="3392242"/>
-          <a:ext cx="687456" cy="554852"/>
+          <a:off x="4919636" y="2615752"/>
+          <a:ext cx="607218" cy="405765"/>
           <a:chOff x="5308300" y="2532507"/>
           <a:chExt cx="752327" cy="670369"/>
         </a:xfrm>
@@ -5099,15 +4495,15 @@
               <a:buNone/>
             </a:pPr>
             <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1" kern="1200">
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="1" kern="1200">
                 <a:solidFill>
                   <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
               </a:rPr>
-              <a:t>QUEUE</a:t>
+              <a:t>IPC</a:t>
             </a:r>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1" kern="1200">
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" b="1" kern="1200">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
@@ -5122,15 +4518,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>664910</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>178590</xdr:rowOff>
+      <xdr:colOff>234994</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>186877</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>664911</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>12855</xdr:rowOff>
+      <xdr:colOff>234995</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>21142</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -5145,8 +4541,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="6852019" y="3392242"/>
-          <a:ext cx="687457" cy="554852"/>
+          <a:off x="5699963" y="2615752"/>
+          <a:ext cx="607220" cy="405765"/>
           <a:chOff x="6082031" y="2532507"/>
           <a:chExt cx="752327" cy="670369"/>
         </a:xfrm>
@@ -5269,7 +4665,7 @@
               <a:buNone/>
             </a:pPr>
             <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1" kern="1200">
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="1" kern="1200">
                 <a:solidFill>
                   <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
@@ -5277,7 +4673,7 @@
               </a:rPr>
               <a:t>DIAG</a:t>
             </a:r>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1" kern="1200">
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" b="1" kern="1200">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
@@ -5594,15 +4990,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>601512</xdr:colOff>
+      <xdr:colOff>602515</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>148729</xdr:rowOff>
+      <xdr:rowOff>143966</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>58218</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>178590</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>115848</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>186877</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -5620,8 +5016,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipV="1">
-          <a:off x="3855750" y="2377578"/>
-          <a:ext cx="510252" cy="1519076"/>
+          <a:off x="3283149" y="2137908"/>
+          <a:ext cx="233411" cy="729603"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
           <a:avLst/>
@@ -5654,15 +5050,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>156125</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>203974</xdr:rowOff>
+      <xdr:colOff>193222</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>3949</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>322011</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>178590</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>540798</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>186877</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -5680,12 +5076,12 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipV="1">
-          <a:off x="4703662" y="899328"/>
-          <a:ext cx="695203" cy="4290625"/>
+          <a:off x="4155730" y="728744"/>
+          <a:ext cx="373428" cy="3405602"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
-            <a:gd name="adj1" fmla="val 132983"/>
+            <a:gd name="adj1" fmla="val 161217"/>
           </a:avLst>
         </a:prstGeom>
         <a:ln w="12700">
@@ -5715,16 +5111,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>613325</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1720</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>14269</xdr:rowOff>
+      <xdr:rowOff>24475</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>187660</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>217997</xdr:rowOff>
+      <xdr:colOff>300403</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>3004</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -5742,8 +5138,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="3363151" y="3468117"/>
-          <a:ext cx="261792" cy="443923"/>
+          <a:off x="3059746" y="2836857"/>
+          <a:ext cx="298683" cy="359529"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -5893,9 +5289,9 @@
       <xdr:col>2</xdr:col>
       <xdr:colOff>447257</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>74546</xdr:rowOff>
+      <xdr:rowOff>38827</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="813813" cy="264560"/>
+    <xdr:ext cx="871008" cy="280205"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="109" name="テキスト ボックス 108">
@@ -5909,8 +5305,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1822170" y="4489176"/>
-          <a:ext cx="813813" cy="264560"/>
+          <a:off x="1661695" y="3610702"/>
+          <a:ext cx="871008" cy="280205"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5938,10 +5334,10 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200"/>
             <a:t>Implement</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -5954,7 +5350,7 @@
       <xdr:row>19</xdr:row>
       <xdr:rowOff>44728</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="1102225" cy="264560"/>
+    <xdr:ext cx="1185581" cy="280205"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="110" name="テキスト ボックス 109">
@@ -5968,8 +5364,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1817201" y="4699554"/>
-          <a:ext cx="1102225" cy="264560"/>
+          <a:off x="1656726" y="3807103"/>
+          <a:ext cx="1185581" cy="280205"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5997,15 +5393,199 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200"/>
             <a:t>Reference / Use</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>120461</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>14792</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>547147</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>27492</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="60" name="コネクタ: カギ線 59">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C4F01910-EFF1-42AD-862E-70062AE9AABA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="26" idx="2"/>
+          <a:endCxn id="20" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="4914494" y="1893273"/>
+          <a:ext cx="12700" cy="2261501"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 1800000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:prstDash val="sysDash"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>253086</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>180528</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>371844</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>2728</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="67" name="コネクタ: カギ線 66">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FDFB1A5D-7E3E-4739-BFCC-02121E94E840}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="24" idx="0"/>
+          <a:endCxn id="22" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000" flipH="1" flipV="1">
+          <a:off x="4860256" y="2252764"/>
+          <a:ext cx="12700" cy="725977"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 1800000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:prstDash val="sysDash"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>61885</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>8760</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>234994</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>8760</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="73" name="コネクタ: カギ線 63">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BACE9946-A5D2-41ED-9F1F-64BECD2303FF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="20" idx="1"/>
+          <a:endCxn id="22" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="5526854" y="2818635"/>
+          <a:ext cx="173109" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:prstDash val="sysDash"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -6306,561 +5886,395 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B33BFA01-738B-4C3B-AB43-466CFAB6F254}">
-  <dimension ref="B2:H42"/>
+  <dimension ref="B2:G32"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A7" zoomScale="97" zoomScaleNormal="97" workbookViewId="0">
-      <selection activeCell="R24" sqref="R24"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="3.625" style="19" customWidth="1"/>
-    <col min="2" max="2" width="4.625" style="19" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.125" style="19" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.875" style="19" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.125" style="19" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.875" style="19" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="1.625" style="19" customWidth="1"/>
-    <col min="8" max="8" width="117.5" style="19" customWidth="1"/>
-    <col min="9" max="15" width="3.625" style="19" customWidth="1"/>
-    <col min="16" max="16384" width="9" style="19"/>
+    <col min="1" max="1" width="3.5703125" style="19" customWidth="1"/>
+    <col min="2" max="2" width="4.5703125" style="19" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.140625" style="19" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" style="19" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" style="19" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="1.5703125" style="19" customWidth="1"/>
+    <col min="7" max="7" width="106.42578125" style="19" bestFit="1" customWidth="1"/>
+    <col min="8" max="14" width="3.5703125" style="19" customWidth="1"/>
+    <col min="15" max="16384" width="9" style="19"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B2" s="104" t="s">
-        <v>99</v>
-      </c>
-      <c r="C2" s="105"/>
-      <c r="D2" s="105"/>
-      <c r="E2" s="105"/>
-      <c r="F2" s="113"/>
-      <c r="G2" s="105"/>
-      <c r="H2" s="111" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B3" s="106"/>
-      <c r="C3" s="104" t="s">
-        <v>101</v>
-      </c>
-      <c r="D3" s="105"/>
-      <c r="E3" s="105"/>
-      <c r="F3" s="113"/>
-      <c r="G3" s="105"/>
-      <c r="H3" s="111" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B4" s="106"/>
-      <c r="C4" s="106"/>
-      <c r="D4" s="107" t="s">
-        <v>102</v>
-      </c>
-      <c r="E4" s="105"/>
-      <c r="F4" s="113"/>
-      <c r="G4" s="105"/>
-      <c r="H4" s="111" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="5" spans="2:8" ht="31.5" x14ac:dyDescent="0.4">
-      <c r="B5" s="106"/>
-      <c r="C5" s="106"/>
-      <c r="D5" s="107" t="s">
+    <row r="2" spans="2:7">
+      <c r="B2" s="94" t="s">
+        <v>91</v>
+      </c>
+      <c r="C2" s="95"/>
+      <c r="D2" s="95"/>
+      <c r="E2" s="102"/>
+      <c r="F2" s="95"/>
+      <c r="G2" s="100" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7">
+      <c r="B3" s="96"/>
+      <c r="C3" s="94" t="s">
+        <v>93</v>
+      </c>
+      <c r="D3" s="95"/>
+      <c r="E3" s="102"/>
+      <c r="F3" s="95"/>
+      <c r="G3" s="100" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7">
+      <c r="B4" s="96"/>
+      <c r="C4" s="96"/>
+      <c r="D4" s="97" t="s">
+        <v>94</v>
+      </c>
+      <c r="E4" s="102"/>
+      <c r="F4" s="95"/>
+      <c r="G4" s="100" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" ht="31.5">
+      <c r="B5" s="96"/>
+      <c r="C5" s="96"/>
+      <c r="D5" s="97" t="s">
+        <v>104</v>
+      </c>
+      <c r="E5" s="102"/>
+      <c r="F5" s="95"/>
+      <c r="G5" s="100" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" ht="31.5">
+      <c r="B6" s="96"/>
+      <c r="C6" s="96"/>
+      <c r="D6" s="97" t="s">
+        <v>95</v>
+      </c>
+      <c r="E6" s="102"/>
+      <c r="F6" s="95"/>
+      <c r="G6" s="100" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7">
+      <c r="B7" s="96"/>
+      <c r="C7" s="98"/>
+      <c r="D7" s="97" t="s">
+        <v>96</v>
+      </c>
+      <c r="E7" s="102"/>
+      <c r="F7" s="95"/>
+      <c r="G7" s="100" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7">
+      <c r="B8" s="96"/>
+      <c r="C8" s="94" t="s">
+        <v>81</v>
+      </c>
+      <c r="D8" s="95"/>
+      <c r="E8" s="102"/>
+      <c r="F8" s="95"/>
+      <c r="G8" s="101" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7">
+      <c r="B9" s="96"/>
+      <c r="C9" s="96"/>
+      <c r="D9" s="94" t="s">
+        <v>93</v>
+      </c>
+      <c r="E9" s="102"/>
+      <c r="F9" s="95"/>
+      <c r="G9" s="100" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7">
+      <c r="B10" s="96"/>
+      <c r="C10" s="96"/>
+      <c r="D10" s="98"/>
+      <c r="E10" s="104" t="s">
+        <v>105</v>
+      </c>
+      <c r="F10" s="95"/>
+      <c r="G10" s="100" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7">
+      <c r="B11" s="96"/>
+      <c r="C11" s="96"/>
+      <c r="D11" s="94" t="s">
+        <v>97</v>
+      </c>
+      <c r="E11" s="102"/>
+      <c r="F11" s="95"/>
+      <c r="G11" s="100" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7">
+      <c r="B12" s="96"/>
+      <c r="C12" s="98"/>
+      <c r="D12" s="98"/>
+      <c r="E12" s="104" t="s">
+        <v>106</v>
+      </c>
+      <c r="F12" s="95"/>
+      <c r="G12" s="100" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" ht="31.5">
+      <c r="B13" s="96"/>
+      <c r="C13" s="94" t="s">
+        <v>107</v>
+      </c>
+      <c r="D13" s="99"/>
+      <c r="E13" s="103"/>
+      <c r="F13" s="95"/>
+      <c r="G13" s="100" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7">
+      <c r="B14" s="96"/>
+      <c r="C14" s="96"/>
+      <c r="D14" s="94" t="s">
+        <v>93</v>
+      </c>
+      <c r="E14" s="103"/>
+      <c r="F14" s="95"/>
+      <c r="G14" s="100" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7">
+      <c r="B15" s="96"/>
+      <c r="C15" s="96"/>
+      <c r="D15" s="98"/>
+      <c r="E15" s="104" t="s">
+        <v>108</v>
+      </c>
+      <c r="F15" s="95"/>
+      <c r="G15" s="100" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7">
+      <c r="B16" s="96"/>
+      <c r="C16" s="96"/>
+      <c r="D16" s="94" t="s">
+        <v>97</v>
+      </c>
+      <c r="E16" s="120"/>
+      <c r="F16" s="95"/>
+      <c r="G16" s="100" t="s">
         <v>121</v>
       </c>
-      <c r="E5" s="105"/>
-      <c r="F5" s="113"/>
-      <c r="G5" s="105"/>
-      <c r="H5" s="111" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8" ht="31.5" x14ac:dyDescent="0.4">
-      <c r="B6" s="106"/>
-      <c r="C6" s="106"/>
-      <c r="D6" s="107" t="s">
-        <v>103</v>
-      </c>
-      <c r="E6" s="105"/>
-      <c r="F6" s="113"/>
-      <c r="G6" s="105"/>
-      <c r="H6" s="111" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B7" s="106"/>
-      <c r="C7" s="108"/>
-      <c r="D7" s="107" t="s">
-        <v>104</v>
-      </c>
-      <c r="E7" s="105"/>
-      <c r="F7" s="113"/>
-      <c r="G7" s="105"/>
-      <c r="H7" s="111" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B8" s="106"/>
-      <c r="C8" s="104" t="s">
-        <v>105</v>
-      </c>
-      <c r="D8" s="109"/>
-      <c r="E8" s="109"/>
-      <c r="F8" s="114"/>
-      <c r="G8" s="109"/>
-      <c r="H8" s="111" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B9" s="106"/>
-      <c r="C9" s="106"/>
-      <c r="D9" s="104" t="s">
-        <v>122</v>
-      </c>
-      <c r="E9" s="105"/>
-      <c r="F9" s="113"/>
-      <c r="G9" s="105"/>
-      <c r="H9" s="112" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B10" s="106"/>
-      <c r="C10" s="106"/>
-      <c r="D10" s="106"/>
-      <c r="E10" s="104" t="s">
-        <v>101</v>
-      </c>
-      <c r="F10" s="113"/>
-      <c r="G10" s="105"/>
-      <c r="H10" s="111" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B11" s="106"/>
-      <c r="C11" s="106"/>
-      <c r="D11" s="106"/>
-      <c r="E11" s="108"/>
-      <c r="F11" s="115" t="s">
-        <v>123</v>
-      </c>
-      <c r="G11" s="105"/>
-      <c r="H11" s="111" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B12" s="106"/>
-      <c r="C12" s="106"/>
-      <c r="D12" s="106"/>
-      <c r="E12" s="104" t="s">
-        <v>109</v>
-      </c>
-      <c r="F12" s="113"/>
-      <c r="G12" s="105"/>
-      <c r="H12" s="111" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B13" s="106"/>
-      <c r="C13" s="106"/>
-      <c r="D13" s="108"/>
-      <c r="E13" s="108"/>
-      <c r="F13" s="115" t="s">
-        <v>124</v>
-      </c>
-      <c r="G13" s="105"/>
-      <c r="H13" s="111" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="14" spans="2:8" ht="31.5" x14ac:dyDescent="0.4">
-      <c r="B14" s="106"/>
-      <c r="C14" s="106"/>
-      <c r="D14" s="104" t="s">
-        <v>125</v>
-      </c>
-      <c r="E14" s="105"/>
-      <c r="F14" s="113"/>
-      <c r="G14" s="105"/>
-      <c r="H14" s="111" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B15" s="106"/>
-      <c r="C15" s="106"/>
-      <c r="D15" s="106"/>
-      <c r="E15" s="104" t="s">
-        <v>101</v>
-      </c>
-      <c r="F15" s="113"/>
-      <c r="G15" s="105"/>
-      <c r="H15" s="111" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B16" s="106"/>
-      <c r="C16" s="106"/>
-      <c r="D16" s="106"/>
-      <c r="E16" s="108"/>
-      <c r="F16" s="115" t="s">
-        <v>126</v>
-      </c>
-      <c r="G16" s="105"/>
-      <c r="H16" s="111" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B17" s="106"/>
-      <c r="C17" s="106"/>
-      <c r="D17" s="106"/>
+    </row>
+    <row r="17" spans="2:7">
+      <c r="B17" s="96"/>
+      <c r="C17" s="98"/>
+      <c r="D17" s="98"/>
       <c r="E17" s="104" t="s">
         <v>109</v>
       </c>
-      <c r="F17" s="113"/>
-      <c r="G17" s="105"/>
-      <c r="H17" s="111" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B18" s="106"/>
-      <c r="C18" s="106"/>
-      <c r="D18" s="108"/>
-      <c r="E18" s="108"/>
-      <c r="F18" s="115" t="s">
-        <v>127</v>
-      </c>
-      <c r="G18" s="105"/>
-      <c r="H18" s="111" t="s">
+      <c r="F17" s="95"/>
+      <c r="G17" s="100" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" ht="31.5">
+      <c r="B18" s="96"/>
+      <c r="C18" s="119" t="s">
+        <v>147</v>
+      </c>
+      <c r="D18" s="95"/>
+      <c r="E18" s="102"/>
+      <c r="F18" s="95"/>
+      <c r="G18" s="100" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7">
+      <c r="B19" s="96"/>
+      <c r="C19" s="96"/>
+      <c r="D19" s="94" t="s">
+        <v>93</v>
+      </c>
+      <c r="E19" s="102"/>
+      <c r="F19" s="95"/>
+      <c r="G19" s="100" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7">
+      <c r="B20" s="96"/>
+      <c r="C20" s="96"/>
+      <c r="D20" s="96"/>
+      <c r="E20" s="102" t="s">
+        <v>98</v>
+      </c>
+      <c r="F20" s="95"/>
+      <c r="G20" s="100" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7">
+      <c r="B21" s="96"/>
+      <c r="C21" s="96"/>
+      <c r="D21" s="96"/>
+      <c r="E21" s="102" t="s">
+        <v>99</v>
+      </c>
+      <c r="F21" s="95"/>
+      <c r="G21" s="100" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7">
+      <c r="B22" s="96"/>
+      <c r="C22" s="96"/>
+      <c r="D22" s="98"/>
+      <c r="E22" s="102" t="s">
+        <v>100</v>
+      </c>
+      <c r="F22" s="95"/>
+      <c r="G22" s="100" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7">
+      <c r="B23" s="96"/>
+      <c r="C23" s="96"/>
+      <c r="D23" s="94" t="s">
+        <v>97</v>
+      </c>
+      <c r="E23" s="102"/>
+      <c r="F23" s="95"/>
+      <c r="G23" s="100" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7">
+      <c r="B24" s="96"/>
+      <c r="C24" s="96"/>
+      <c r="D24" s="96"/>
+      <c r="E24" s="104" t="s">
+        <v>103</v>
+      </c>
+      <c r="F24" s="95"/>
+      <c r="G24" s="100" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7">
+      <c r="B25" s="96"/>
+      <c r="C25" s="96"/>
+      <c r="D25" s="96"/>
+      <c r="E25" s="104" t="s">
+        <v>101</v>
+      </c>
+      <c r="F25" s="95"/>
+      <c r="G25" s="100" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7">
+      <c r="B26" s="96"/>
+      <c r="C26" s="98"/>
+      <c r="D26" s="98"/>
+      <c r="E26" s="104" t="s">
+        <v>102</v>
+      </c>
+      <c r="F26" s="95"/>
+      <c r="G26" s="18" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7">
+      <c r="B27" s="96"/>
+      <c r="C27" s="94" t="s">
+        <v>148</v>
+      </c>
+      <c r="D27" s="95"/>
+      <c r="E27" s="102"/>
+      <c r="F27" s="95"/>
+      <c r="G27" s="100" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7">
+      <c r="B28" s="96"/>
+      <c r="C28" s="96"/>
+      <c r="D28" s="94" t="s">
+        <v>93</v>
+      </c>
+      <c r="E28" s="102"/>
+      <c r="F28" s="95"/>
+      <c r="G28" s="100" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7">
+      <c r="B29" s="96"/>
+      <c r="C29" s="96"/>
+      <c r="D29" s="96"/>
+      <c r="E29" s="104" t="s">
+        <v>149</v>
+      </c>
+      <c r="F29" s="95"/>
+      <c r="G29" s="100" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7">
+      <c r="B30" s="96"/>
+      <c r="C30" s="96"/>
+      <c r="D30" s="94" t="s">
+        <v>97</v>
+      </c>
+      <c r="E30" s="102"/>
+      <c r="F30" s="95"/>
+      <c r="G30" s="100" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7">
+      <c r="B31" s="96"/>
+      <c r="C31" s="96"/>
+      <c r="D31" s="96"/>
+      <c r="E31" s="104" t="s">
+        <v>150</v>
+      </c>
+      <c r="F31" s="95"/>
+      <c r="G31" s="100" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B19" s="106"/>
-      <c r="C19" s="106"/>
-      <c r="D19" s="104" t="s">
-        <v>106</v>
-      </c>
-      <c r="E19" s="105"/>
-      <c r="F19" s="113"/>
-      <c r="G19" s="105"/>
-      <c r="H19" s="111" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B20" s="106"/>
-      <c r="C20" s="106"/>
-      <c r="D20" s="106"/>
-      <c r="E20" s="104" t="s">
-        <v>101</v>
-      </c>
-      <c r="F20" s="113"/>
-      <c r="G20" s="105"/>
-      <c r="H20" s="111" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B21" s="106"/>
-      <c r="C21" s="106"/>
-      <c r="D21" s="106"/>
-      <c r="E21" s="106"/>
-      <c r="F21" s="115" t="s">
-        <v>110</v>
-      </c>
-      <c r="G21" s="105"/>
-      <c r="H21" s="111" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B22" s="106"/>
-      <c r="C22" s="106"/>
-      <c r="D22" s="106"/>
-      <c r="E22" s="108"/>
-      <c r="F22" s="115" t="s">
-        <v>111</v>
-      </c>
-      <c r="G22" s="105"/>
-      <c r="H22" s="111" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B23" s="106"/>
-      <c r="C23" s="106"/>
-      <c r="D23" s="106"/>
-      <c r="E23" s="104" t="s">
-        <v>109</v>
-      </c>
-      <c r="F23" s="113"/>
-      <c r="G23" s="105"/>
-      <c r="H23" s="111" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B24" s="106"/>
-      <c r="C24" s="106"/>
-      <c r="D24" s="106"/>
-      <c r="E24" s="106"/>
-      <c r="F24" s="115" t="s">
-        <v>119</v>
-      </c>
-      <c r="G24" s="105"/>
-      <c r="H24" s="111" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B25" s="106"/>
-      <c r="C25" s="106"/>
-      <c r="D25" s="108"/>
-      <c r="E25" s="108"/>
-      <c r="F25" s="115" t="s">
-        <v>120</v>
-      </c>
-      <c r="G25" s="105"/>
-      <c r="H25" s="111" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B26" s="106"/>
-      <c r="C26" s="106"/>
-      <c r="D26" s="110" t="s">
-        <v>107</v>
-      </c>
-      <c r="E26" s="104" t="s">
-        <v>101</v>
-      </c>
-      <c r="F26" s="113"/>
-      <c r="G26" s="105"/>
-      <c r="H26" s="111" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B27" s="106"/>
-      <c r="C27" s="106"/>
-      <c r="D27" s="106"/>
-      <c r="E27" s="106"/>
-      <c r="F27" s="115" t="s">
-        <v>128</v>
-      </c>
-      <c r="G27" s="105"/>
-      <c r="H27" s="111" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B28" s="106"/>
-      <c r="C28" s="106"/>
-      <c r="D28" s="106"/>
-      <c r="E28" s="106"/>
-      <c r="F28" s="115" t="s">
-        <v>129</v>
-      </c>
-      <c r="G28" s="105"/>
-      <c r="H28" s="18" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B29" s="106"/>
-      <c r="C29" s="106"/>
-      <c r="D29" s="106"/>
-      <c r="E29" s="108"/>
-      <c r="F29" s="115" t="s">
-        <v>130</v>
-      </c>
-      <c r="G29" s="105"/>
-      <c r="H29" s="18" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B30" s="106"/>
-      <c r="C30" s="106"/>
-      <c r="D30" s="106"/>
-      <c r="E30" s="104" t="s">
-        <v>109</v>
-      </c>
-      <c r="F30" s="113"/>
-      <c r="G30" s="105"/>
-      <c r="H30" s="111" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B31" s="106"/>
-      <c r="C31" s="106"/>
-      <c r="D31" s="106"/>
-      <c r="E31" s="106"/>
-      <c r="F31" s="115" t="s">
-        <v>158</v>
-      </c>
-      <c r="G31" s="105"/>
-      <c r="H31" s="111" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B32" s="106"/>
-      <c r="C32" s="106"/>
-      <c r="D32" s="108"/>
-      <c r="E32" s="108"/>
-      <c r="F32" s="115" t="s">
-        <v>131</v>
-      </c>
-      <c r="G32" s="105"/>
-      <c r="H32" s="18" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B33" s="106"/>
-      <c r="C33" s="106"/>
-      <c r="D33" s="110" t="s">
-        <v>108</v>
-      </c>
-      <c r="E33" s="104" t="s">
-        <v>101</v>
-      </c>
-      <c r="F33" s="113"/>
-      <c r="G33" s="105"/>
-      <c r="H33" s="18" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B34" s="106"/>
-      <c r="C34" s="106"/>
-      <c r="D34" s="106"/>
-      <c r="E34" s="106"/>
-      <c r="F34" s="115" t="s">
-        <v>113</v>
-      </c>
-      <c r="G34" s="105"/>
-      <c r="H34" s="111" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B35" s="106"/>
-      <c r="C35" s="106"/>
-      <c r="D35" s="106"/>
-      <c r="E35" s="106"/>
-      <c r="F35" s="115" t="s">
-        <v>115</v>
-      </c>
-      <c r="G35" s="105"/>
-      <c r="H35" s="111" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B36" s="106"/>
-      <c r="C36" s="106"/>
-      <c r="D36" s="106"/>
-      <c r="E36" s="106"/>
-      <c r="F36" s="115" t="s">
-        <v>114</v>
-      </c>
-      <c r="G36" s="105"/>
-      <c r="H36" s="111" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B37" s="106"/>
-      <c r="C37" s="106"/>
-      <c r="D37" s="106"/>
-      <c r="E37" s="108"/>
-      <c r="F37" s="115" t="s">
-        <v>112</v>
-      </c>
-      <c r="G37" s="105"/>
-      <c r="H37" s="111" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B38" s="106"/>
-      <c r="C38" s="106"/>
-      <c r="D38" s="106"/>
-      <c r="E38" s="104" t="s">
-        <v>109</v>
-      </c>
-      <c r="F38" s="113"/>
-      <c r="G38" s="105"/>
-      <c r="H38" s="111" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B39" s="106"/>
-      <c r="C39" s="106"/>
-      <c r="D39" s="106"/>
-      <c r="E39" s="106"/>
-      <c r="F39" s="115" t="s">
-        <v>116</v>
-      </c>
-      <c r="G39" s="105"/>
-      <c r="H39" s="111" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B40" s="106"/>
-      <c r="C40" s="106"/>
-      <c r="D40" s="106"/>
-      <c r="E40" s="106"/>
-      <c r="F40" s="115" t="s">
-        <v>117</v>
-      </c>
-      <c r="G40" s="105"/>
-      <c r="H40" s="18" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B41" s="106"/>
-      <c r="C41" s="108"/>
-      <c r="D41" s="108"/>
-      <c r="E41" s="108"/>
-      <c r="F41" s="115" t="s">
-        <v>118</v>
-      </c>
-      <c r="G41" s="105"/>
-      <c r="H41" s="18" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B42" s="108"/>
-      <c r="C42" s="107" t="s">
-        <v>100</v>
-      </c>
-      <c r="D42" s="105"/>
-      <c r="E42" s="105"/>
-      <c r="F42" s="113"/>
-      <c r="G42" s="105"/>
-      <c r="H42" s="111" t="s">
-        <v>172</v>
+    <row r="32" spans="2:7">
+      <c r="B32" s="98"/>
+      <c r="C32" s="97" t="s">
+        <v>92</v>
+      </c>
+      <c r="D32" s="95"/>
+      <c r="E32" s="95"/>
+      <c r="F32" s="95"/>
+      <c r="G32" s="100" t="s">
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -6874,212 +6288,212 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{560B12B0-C0A0-49FB-94A8-5D2FCBC75D15}">
   <dimension ref="B2:N21"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="3.625" customWidth="1"/>
-    <col min="2" max="2" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.5703125" customWidth="1"/>
+    <col min="2" max="2" width="18.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="38.125" customWidth="1"/>
-    <col min="9" max="9" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="38.140625" customWidth="1"/>
+    <col min="9" max="9" width="18.42578125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.25" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.25" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.25" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B2" s="124" t="s">
-        <v>190</v>
+    <row r="2" spans="2:14">
+      <c r="B2" s="113" t="s">
+        <v>129</v>
       </c>
       <c r="C2" s="3">
         <v>31999</v>
       </c>
-      <c r="I2" s="125" t="s">
-        <v>190</v>
+      <c r="I2" s="114" t="s">
+        <v>129</v>
       </c>
       <c r="J2" s="3">
         <v>31999</v>
       </c>
     </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B3" s="124" t="s">
-        <v>191</v>
+    <row r="3" spans="2:14">
+      <c r="B3" s="113" t="s">
+        <v>130</v>
       </c>
       <c r="C3" s="3">
         <v>0</v>
       </c>
-      <c r="I3" s="125" t="s">
-        <v>191</v>
+      <c r="I3" s="114" t="s">
+        <v>130</v>
       </c>
       <c r="J3" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B4" s="124" t="s">
-        <v>192</v>
+    <row r="4" spans="2:14">
+      <c r="B4" s="113" t="s">
+        <v>131</v>
       </c>
       <c r="C4" s="3">
         <v>1</v>
       </c>
-      <c r="I4" s="125" t="s">
-        <v>192</v>
+      <c r="I4" s="114" t="s">
+        <v>131</v>
       </c>
       <c r="J4" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B5" s="124" t="s">
-        <v>194</v>
+    <row r="5" spans="2:14">
+      <c r="B5" s="113" t="s">
+        <v>133</v>
       </c>
       <c r="C5" s="3">
         <v>1000</v>
       </c>
-      <c r="I5" s="125" t="s">
-        <v>205</v>
+      <c r="I5" s="114" t="s">
+        <v>144</v>
       </c>
       <c r="J5" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B6" s="124" t="s">
-        <v>193</v>
+    <row r="6" spans="2:14">
+      <c r="B6" s="113" t="s">
+        <v>132</v>
       </c>
       <c r="C6" s="3">
         <f>C5/C4</f>
         <v>1000</v>
       </c>
-      <c r="I6" s="125" t="s">
-        <v>203</v>
+      <c r="I6" s="114" t="s">
+        <v>142</v>
       </c>
       <c r="J6" s="3">
         <f>J5/J4</f>
         <v>2000</v>
       </c>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B7" s="124" t="s">
-        <v>189</v>
+    <row r="7" spans="2:14">
+      <c r="B7" s="113" t="s">
+        <v>128</v>
       </c>
       <c r="C7" s="3">
         <f>C2-C3</f>
         <v>31999</v>
       </c>
-      <c r="I7" s="125" t="s">
-        <v>204</v>
+      <c r="I7" s="114" t="s">
+        <v>143</v>
       </c>
       <c r="J7" s="3">
         <f>J2-J3</f>
         <v>31999</v>
       </c>
     </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B8" s="124" t="s">
-        <v>193</v>
+    <row r="8" spans="2:14">
+      <c r="B8" s="113" t="s">
+        <v>132</v>
       </c>
       <c r="C8" s="3">
         <f>ROUNDDOWN(ROUNDDOWN(C5*POWER(2,10)/C4, 0)/POWER(2,10),0)</f>
         <v>1000</v>
       </c>
-      <c r="I8" s="125" t="s">
-        <v>203</v>
+      <c r="I8" s="114" t="s">
+        <v>142</v>
       </c>
       <c r="J8" s="3">
         <f>ROUNDDOWN(ROUNDDOWN(J5*POWER(2,10)/J4, 0)/POWER(2,10),0)</f>
         <v>2000</v>
       </c>
     </row>
-    <row r="9" spans="2:14" s="128" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="126"/>
-      <c r="C9" s="127"/>
-      <c r="J9" s="127"/>
-    </row>
-    <row r="10" spans="2:14" s="128" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B10" s="126" t="s">
-        <v>188</v>
-      </c>
-      <c r="C10" s="129" t="s">
-        <v>207</v>
-      </c>
-      <c r="I10" s="126" t="s">
-        <v>188</v>
-      </c>
-      <c r="J10" s="127" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B12" s="120" t="s">
-        <v>200</v>
-      </c>
-      <c r="C12" s="121" t="s">
-        <v>197</v>
-      </c>
-      <c r="D12" s="121"/>
-      <c r="E12" s="121" t="s">
-        <v>195</v>
-      </c>
-      <c r="F12" s="121"/>
-      <c r="G12" s="121" t="s">
-        <v>196</v>
-      </c>
-      <c r="I12" s="120" t="s">
-        <v>200</v>
-      </c>
-      <c r="J12" s="121" t="s">
-        <v>197</v>
-      </c>
-      <c r="K12" s="121"/>
-      <c r="L12" s="121" t="s">
-        <v>195</v>
-      </c>
-      <c r="M12" s="121"/>
-      <c r="N12" s="121" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B13" s="122"/>
-      <c r="C13" s="121" t="s">
-        <v>198</v>
-      </c>
-      <c r="D13" s="121" t="s">
-        <v>199</v>
-      </c>
-      <c r="E13" s="121" t="s">
-        <v>198</v>
-      </c>
-      <c r="F13" s="121" t="s">
-        <v>199</v>
-      </c>
-      <c r="G13" s="121"/>
-      <c r="I13" s="122"/>
-      <c r="J13" s="121" t="s">
-        <v>198</v>
-      </c>
-      <c r="K13" s="121" t="s">
-        <v>199</v>
-      </c>
-      <c r="L13" s="121" t="s">
-        <v>198</v>
-      </c>
-      <c r="M13" s="121" t="s">
-        <v>199</v>
-      </c>
-      <c r="N13" s="121"/>
-    </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:14" s="117" customFormat="1">
+      <c r="B9" s="115"/>
+      <c r="C9" s="116"/>
+      <c r="J9" s="116"/>
+    </row>
+    <row r="10" spans="2:14" s="117" customFormat="1">
+      <c r="B10" s="115" t="s">
+        <v>127</v>
+      </c>
+      <c r="C10" s="118" t="s">
+        <v>146</v>
+      </c>
+      <c r="I10" s="115" t="s">
+        <v>127</v>
+      </c>
+      <c r="J10" s="116" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14">
+      <c r="B12" s="109" t="s">
+        <v>139</v>
+      </c>
+      <c r="C12" s="110" t="s">
+        <v>136</v>
+      </c>
+      <c r="D12" s="110"/>
+      <c r="E12" s="110" t="s">
+        <v>134</v>
+      </c>
+      <c r="F12" s="110"/>
+      <c r="G12" s="110" t="s">
+        <v>135</v>
+      </c>
+      <c r="I12" s="109" t="s">
+        <v>139</v>
+      </c>
+      <c r="J12" s="110" t="s">
+        <v>136</v>
+      </c>
+      <c r="K12" s="110"/>
+      <c r="L12" s="110" t="s">
+        <v>134</v>
+      </c>
+      <c r="M12" s="110"/>
+      <c r="N12" s="110" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14">
+      <c r="B13" s="111"/>
+      <c r="C13" s="110" t="s">
+        <v>137</v>
+      </c>
+      <c r="D13" s="110" t="s">
+        <v>138</v>
+      </c>
+      <c r="E13" s="110" t="s">
+        <v>137</v>
+      </c>
+      <c r="F13" s="110" t="s">
+        <v>138</v>
+      </c>
+      <c r="G13" s="110"/>
+      <c r="I13" s="111"/>
+      <c r="J13" s="110" t="s">
+        <v>137</v>
+      </c>
+      <c r="K13" s="110" t="s">
+        <v>138</v>
+      </c>
+      <c r="L13" s="110" t="s">
+        <v>137</v>
+      </c>
+      <c r="M13" s="110" t="s">
+        <v>138</v>
+      </c>
+      <c r="N13" s="110"/>
+    </row>
+    <row r="14" spans="2:14">
       <c r="B14" s="3">
         <v>1</v>
       </c>
@@ -7127,12 +6541,12 @@
         <v>31983.000499999998</v>
       </c>
     </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:14">
       <c r="B15" s="3">
         <v>2</v>
       </c>
       <c r="C15" s="3">
-        <f t="shared" ref="C14:C20" si="0">ROUNDDOWN(ROUNDDOWN(ROUNDDOWN($C$7*POWER(2,10)/$C$6,0)*$B15,0)/POWER(2,10),0)</f>
+        <f t="shared" ref="C15:C20" si="0">ROUNDDOWN(ROUNDDOWN(ROUNDDOWN($C$7*POWER(2,10)/$C$6,0)*$B15,0)/POWER(2,10),0)</f>
         <v>63</v>
       </c>
       <c r="D15" s="3">
@@ -7175,7 +6589,7 @@
         <v>31967.001</v>
       </c>
     </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:14">
       <c r="B16" s="3">
         <v>3</v>
       </c>
@@ -7223,7 +6637,7 @@
         <v>31951.001499999998</v>
       </c>
     </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:14">
       <c r="B17" s="3">
         <v>4</v>
       </c>
@@ -7271,7 +6685,7 @@
         <v>31935.002</v>
       </c>
     </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:14">
       <c r="B18" s="3">
         <v>5</v>
       </c>
@@ -7319,7 +6733,7 @@
         <v>31919.002499999999</v>
       </c>
     </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:14">
       <c r="B19" s="3">
         <v>999</v>
       </c>
@@ -7367,7 +6781,7 @@
         <v>15999.5</v>
       </c>
     </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:14">
       <c r="B20" s="3">
         <v>1000</v>
       </c>
@@ -7415,12 +6829,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B21" s="123" t="s">
-        <v>201</v>
-      </c>
-      <c r="I21" s="123" t="s">
-        <v>202</v>
+    <row r="21" spans="2:14">
+      <c r="B21" s="112" t="s">
+        <v>140</v>
+      </c>
+      <c r="I21" s="112" t="s">
+        <v>141</v>
       </c>
     </row>
   </sheetData>
@@ -7437,25 +6851,25 @@
       <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="2.75" customWidth="1"/>
-    <col min="2" max="2" width="15.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.7109375" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:3">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:3">
       <c r="B9" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:3">
       <c r="B10" s="2" t="s">
         <v>26</v>
       </c>
@@ -7464,7 +6878,7 @@
         <v>32000000</v>
       </c>
     </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:3">
       <c r="B11" s="2" t="s">
         <v>2</v>
       </c>
@@ -7472,7 +6886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:3" ht="21" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:3" ht="18">
       <c r="B12" s="2" t="s">
         <v>27</v>
       </c>
@@ -7481,7 +6895,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:3">
       <c r="B13" s="2" t="s">
         <v>3</v>
       </c>
@@ -7489,12 +6903,12 @@
         <v>31999</v>
       </c>
     </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:3">
       <c r="B15" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:3">
       <c r="B16" s="2" t="s">
         <v>26</v>
       </c>
@@ -7503,7 +6917,7 @@
         <v>32000000</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:5">
       <c r="B17" s="2" t="s">
         <v>2</v>
       </c>
@@ -7511,7 +6925,7 @@
         <v>3199</v>
       </c>
     </row>
-    <row r="18" spans="2:5" ht="21" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:5" ht="18">
       <c r="B18" s="2" t="s">
         <v>27</v>
       </c>
@@ -7524,7 +6938,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:5">
       <c r="B19" s="2" t="s">
         <v>3</v>
       </c>
@@ -7540,12 +6954,12 @@
         <v>0.11111111111111112</v>
       </c>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:5">
       <c r="B21" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:5">
       <c r="B22" s="2" t="s">
         <v>26</v>
       </c>
@@ -7554,7 +6968,7 @@
         <v>32000000</v>
       </c>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:5">
       <c r="B23" s="2" t="s">
         <v>2</v>
       </c>
@@ -7562,7 +6976,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="24" spans="2:5" ht="21" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:5" ht="18">
       <c r="B24" s="2" t="s">
         <v>27</v>
       </c>
@@ -7575,7 +6989,7 @@
         <v>6.5535999999999997E-2</v>
       </c>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:5">
       <c r="B25" s="2" t="s">
         <v>3</v>
       </c>
@@ -7607,23 +7021,23 @@
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="2.75" customWidth="1"/>
+    <col min="1" max="1" width="2.7109375" customWidth="1"/>
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="46.375" customWidth="1"/>
+    <col min="6" max="6" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="46.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:6">
       <c r="B2" s="15" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:6">
       <c r="B3" s="11"/>
       <c r="C3" s="7" t="s">
         <v>13</v>
@@ -7638,7 +7052,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:6">
       <c r="B4" s="5" t="s">
         <v>16</v>
       </c>
@@ -7657,7 +7071,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:6">
       <c r="B5" s="5" t="s">
         <v>17</v>
       </c>
@@ -7676,16 +7090,16 @@
         <v>0.15406249999999999</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:6">
       <c r="B6" s="13"/>
       <c r="F6" s="14"/>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:6">
       <c r="B7" s="15" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:6">
       <c r="B8" s="12"/>
       <c r="C8" s="8" t="s">
         <v>13</v>
@@ -7700,7 +7114,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:6">
       <c r="B9" s="5" t="s">
         <v>16</v>
       </c>
@@ -7720,7 +7134,7 @@
         <v>0.24374999999999999</v>
       </c>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:6">
       <c r="B10" s="5" t="s">
         <v>17</v>
       </c>
@@ -7740,12 +7154,12 @@
         <v>0.21984375</v>
       </c>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:6">
       <c r="B12" s="15" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:6">
       <c r="B13" s="12"/>
       <c r="C13" s="8" t="s">
         <v>13</v>
@@ -7760,7 +7174,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:6">
       <c r="B14" s="5" t="s">
         <v>16</v>
       </c>
@@ -7780,7 +7194,7 @@
         <v>0.24374999999999999</v>
       </c>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:6">
       <c r="B15" s="5" t="s">
         <v>17</v>
       </c>
@@ -7811,13 +7225,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64D89BDA-6F4E-4ADC-8ADD-F95175949E09}">
   <dimension ref="B2"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+    <sheetView showGridLines="0" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="2" spans="2:2" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:2" ht="26.25">
       <c r="B2" s="16" t="s">
         <v>50</v>
       </c>
@@ -7832,53 +7246,52 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{202F9C68-BA9B-415A-B4F6-E6F10680B109}">
-  <dimension ref="B2:AL112"/>
+  <dimension ref="B2:AK96"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A58" zoomScale="72" zoomScaleNormal="72" workbookViewId="0">
-      <selection activeCell="N78" sqref="N78"/>
+    <sheetView showGridLines="0" topLeftCell="A52" zoomScale="72" zoomScaleNormal="72" workbookViewId="0">
+      <selection activeCell="AO70" sqref="AO70"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="9" style="19"/>
-    <col min="2" max="5" width="3.625" style="19" customWidth="1"/>
-    <col min="6" max="6" width="1.625" style="19" customWidth="1"/>
-    <col min="7" max="7" width="26.5" style="19" bestFit="1" customWidth="1"/>
-    <col min="8" max="12" width="3.625" style="19" customWidth="1"/>
-    <col min="13" max="13" width="1.625" style="19" customWidth="1"/>
-    <col min="14" max="14" width="3.625" style="19" customWidth="1"/>
-    <col min="15" max="15" width="26.5" style="19" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="1.625" style="19" customWidth="1"/>
-    <col min="17" max="21" width="3.625" style="19" customWidth="1"/>
-    <col min="22" max="22" width="1.625" style="19" customWidth="1"/>
-    <col min="23" max="23" width="16.25" style="19" bestFit="1" customWidth="1"/>
-    <col min="24" max="28" width="3.625" style="19" customWidth="1"/>
-    <col min="29" max="29" width="1.625" style="19" customWidth="1"/>
-    <col min="30" max="30" width="12.625" style="19" bestFit="1" customWidth="1"/>
-    <col min="31" max="36" width="3.625" style="19" customWidth="1"/>
-    <col min="37" max="37" width="1.625" style="19" customWidth="1"/>
-    <col min="38" max="40" width="3.625" style="19" customWidth="1"/>
-    <col min="41" max="41" width="1.625" style="19" customWidth="1"/>
-    <col min="42" max="42" width="16.25" style="19" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="3.625" style="19" customWidth="1"/>
-    <col min="44" max="44" width="1.625" style="19" customWidth="1"/>
-    <col min="45" max="47" width="3.625" style="19" customWidth="1"/>
-    <col min="48" max="48" width="1.625" style="19" customWidth="1"/>
-    <col min="49" max="49" width="12.25" style="19" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="3.625" style="19" customWidth="1"/>
-    <col min="51" max="51" width="1.625" style="19" customWidth="1"/>
-    <col min="52" max="56" width="3.625" style="19" customWidth="1"/>
-    <col min="57" max="16384" width="9" style="19"/>
+    <col min="2" max="5" width="3.5703125" style="19" customWidth="1"/>
+    <col min="6" max="6" width="1.5703125" style="19" customWidth="1"/>
+    <col min="7" max="7" width="26.42578125" style="19" bestFit="1" customWidth="1"/>
+    <col min="8" max="12" width="3.5703125" style="19" customWidth="1"/>
+    <col min="13" max="13" width="1.5703125" style="19" customWidth="1"/>
+    <col min="14" max="14" width="3.5703125" style="19" customWidth="1"/>
+    <col min="15" max="15" width="26.42578125" style="19" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="1.5703125" style="19" customWidth="1"/>
+    <col min="17" max="21" width="3.5703125" style="19" customWidth="1"/>
+    <col min="22" max="22" width="1.5703125" style="19" customWidth="1"/>
+    <col min="23" max="23" width="16.28515625" style="19" bestFit="1" customWidth="1"/>
+    <col min="24" max="28" width="3.5703125" style="19" customWidth="1"/>
+    <col min="29" max="29" width="12.5703125" style="19" bestFit="1" customWidth="1"/>
+    <col min="30" max="35" width="3.5703125" style="19" customWidth="1"/>
+    <col min="36" max="36" width="1.5703125" style="19" customWidth="1"/>
+    <col min="37" max="39" width="3.5703125" style="19" customWidth="1"/>
+    <col min="40" max="40" width="1.5703125" style="19" customWidth="1"/>
+    <col min="41" max="41" width="16.28515625" style="19" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="3.5703125" style="19" customWidth="1"/>
+    <col min="43" max="43" width="1.5703125" style="19" customWidth="1"/>
+    <col min="44" max="46" width="3.5703125" style="19" customWidth="1"/>
+    <col min="47" max="47" width="1.5703125" style="19" customWidth="1"/>
+    <col min="48" max="48" width="12.28515625" style="19" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="3.5703125" style="19" customWidth="1"/>
+    <col min="50" max="50" width="1.5703125" style="19" customWidth="1"/>
+    <col min="51" max="55" width="3.5703125" style="19" customWidth="1"/>
+    <col min="56" max="16384" width="9" style="19"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:19" x14ac:dyDescent="0.4">
+    <row r="2" spans="3:19">
       <c r="C2" s="23" t="s">
         <v>52</v>
       </c>
       <c r="D2" s="24"/>
       <c r="E2" s="25"/>
     </row>
-    <row r="3" spans="3:19" x14ac:dyDescent="0.4">
+    <row r="3" spans="3:19">
       <c r="C3" s="26"/>
       <c r="D3" s="27"/>
       <c r="E3" s="28"/>
@@ -7888,19 +7301,19 @@
       <c r="K3" s="30"/>
       <c r="L3" s="25"/>
     </row>
-    <row r="4" spans="3:19" x14ac:dyDescent="0.4">
+    <row r="4" spans="3:19">
       <c r="C4" s="26"/>
       <c r="D4" s="27"/>
       <c r="E4" s="28"/>
       <c r="G4" s="31" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H4" s="31"/>
       <c r="J4" s="32"/>
       <c r="K4" s="33"/>
       <c r="L4" s="34"/>
     </row>
-    <row r="5" spans="3:19" x14ac:dyDescent="0.4">
+    <row r="5" spans="3:19">
       <c r="C5" s="26"/>
       <c r="D5" s="27"/>
       <c r="E5" s="28"/>
@@ -7912,19 +7325,19 @@
       <c r="K5" s="37"/>
       <c r="L5" s="38"/>
     </row>
-    <row r="6" spans="3:19" x14ac:dyDescent="0.4">
+    <row r="6" spans="3:19">
       <c r="C6" s="26"/>
       <c r="D6" s="27"/>
       <c r="E6" s="28"/>
       <c r="G6" s="31" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H6" s="31"/>
       <c r="J6" s="36"/>
       <c r="K6" s="37"/>
       <c r="L6" s="38"/>
     </row>
-    <row r="7" spans="3:19" x14ac:dyDescent="0.4">
+    <row r="7" spans="3:19">
       <c r="C7" s="26"/>
       <c r="D7" s="27"/>
       <c r="E7" s="28"/>
@@ -7936,19 +7349,19 @@
       <c r="K7" s="37"/>
       <c r="L7" s="38"/>
     </row>
-    <row r="8" spans="3:19" x14ac:dyDescent="0.4">
+    <row r="8" spans="3:19">
       <c r="C8" s="26"/>
       <c r="D8" s="27"/>
       <c r="E8" s="28"/>
       <c r="G8" s="31" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H8" s="31"/>
       <c r="J8" s="36"/>
       <c r="K8" s="37"/>
       <c r="L8" s="38"/>
     </row>
-    <row r="9" spans="3:19" x14ac:dyDescent="0.4">
+    <row r="9" spans="3:19">
       <c r="C9" s="26"/>
       <c r="D9" s="27"/>
       <c r="E9" s="28"/>
@@ -7960,19 +7373,19 @@
       <c r="K9" s="37"/>
       <c r="L9" s="38"/>
     </row>
-    <row r="10" spans="3:19" x14ac:dyDescent="0.4">
+    <row r="10" spans="3:19">
       <c r="C10" s="26"/>
       <c r="D10" s="27"/>
       <c r="E10" s="28"/>
       <c r="G10" s="31" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H10" s="31"/>
       <c r="J10" s="36"/>
       <c r="K10" s="37"/>
       <c r="L10" s="38"/>
     </row>
-    <row r="11" spans="3:19" x14ac:dyDescent="0.4">
+    <row r="11" spans="3:19">
       <c r="C11" s="26"/>
       <c r="D11" s="27"/>
       <c r="E11" s="28"/>
@@ -7984,19 +7397,19 @@
       <c r="K11" s="37"/>
       <c r="L11" s="38"/>
     </row>
-    <row r="12" spans="3:19" x14ac:dyDescent="0.4">
+    <row r="12" spans="3:19">
       <c r="C12" s="26"/>
       <c r="D12" s="27"/>
       <c r="E12" s="28"/>
       <c r="G12" s="31" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H12" s="31"/>
       <c r="J12" s="36"/>
       <c r="K12" s="37"/>
       <c r="L12" s="38"/>
     </row>
-    <row r="13" spans="3:19" x14ac:dyDescent="0.4">
+    <row r="13" spans="3:19">
       <c r="C13" s="26"/>
       <c r="D13" s="27"/>
       <c r="E13" s="28"/>
@@ -8008,13 +7421,13 @@
       <c r="K13" s="40"/>
       <c r="L13" s="41"/>
     </row>
-    <row r="14" spans="3:19" x14ac:dyDescent="0.4">
+    <row r="14" spans="3:19">
       <c r="C14" s="26"/>
       <c r="D14" s="27"/>
       <c r="E14" s="28"/>
       <c r="J14" s="42"/>
     </row>
-    <row r="15" spans="3:19" x14ac:dyDescent="0.4">
+    <row r="15" spans="3:19">
       <c r="C15" s="26"/>
       <c r="D15" s="27"/>
       <c r="E15" s="28"/>
@@ -8024,12 +7437,12 @@
       <c r="K15" s="30"/>
       <c r="L15" s="25"/>
       <c r="Q15" s="43" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="R15" s="44"/>
       <c r="S15" s="25"/>
     </row>
-    <row r="16" spans="3:19" x14ac:dyDescent="0.4">
+    <row r="16" spans="3:19">
       <c r="C16" s="26"/>
       <c r="D16" s="27"/>
       <c r="E16" s="28"/>
@@ -8044,7 +7457,7 @@
       <c r="R16" s="47"/>
       <c r="S16" s="48"/>
     </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.4">
+    <row r="17" spans="3:19">
       <c r="C17" s="26"/>
       <c r="D17" s="27"/>
       <c r="E17" s="28"/>
@@ -8063,7 +7476,7 @@
       <c r="R17" s="54"/>
       <c r="S17" s="55"/>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.4">
+    <row r="18" spans="3:19">
       <c r="C18" s="26"/>
       <c r="D18" s="27"/>
       <c r="E18" s="28"/>
@@ -8078,7 +7491,7 @@
       <c r="R18" s="54"/>
       <c r="S18" s="55"/>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.4">
+    <row r="19" spans="3:19">
       <c r="C19" s="26"/>
       <c r="D19" s="27"/>
       <c r="E19" s="28"/>
@@ -8097,7 +7510,7 @@
       <c r="R19" s="54"/>
       <c r="S19" s="55"/>
     </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.4">
+    <row r="20" spans="3:19">
       <c r="C20" s="26"/>
       <c r="D20" s="27"/>
       <c r="E20" s="28"/>
@@ -8112,7 +7525,7 @@
       <c r="R20" s="54"/>
       <c r="S20" s="55"/>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.4">
+    <row r="21" spans="3:19">
       <c r="C21" s="26"/>
       <c r="D21" s="27"/>
       <c r="E21" s="28"/>
@@ -8131,7 +7544,7 @@
       <c r="R21" s="57"/>
       <c r="S21" s="58"/>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.4">
+    <row r="22" spans="3:19">
       <c r="C22" s="26"/>
       <c r="D22" s="27"/>
       <c r="E22" s="28"/>
@@ -8144,7 +7557,7 @@
       <c r="R22" s="20"/>
       <c r="S22" s="20"/>
     </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.4">
+    <row r="23" spans="3:19">
       <c r="C23" s="26"/>
       <c r="D23" s="27"/>
       <c r="E23" s="28"/>
@@ -8159,7 +7572,7 @@
       <c r="R23" s="44"/>
       <c r="S23" s="25"/>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.4">
+    <row r="24" spans="3:19">
       <c r="C24" s="26"/>
       <c r="D24" s="27"/>
       <c r="E24" s="28"/>
@@ -8174,7 +7587,7 @@
       <c r="R24" s="60"/>
       <c r="S24" s="61"/>
     </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.4">
+    <row r="25" spans="3:19">
       <c r="C25" s="26"/>
       <c r="D25" s="27"/>
       <c r="E25" s="28"/>
@@ -8193,7 +7606,7 @@
       <c r="R25" s="60"/>
       <c r="S25" s="61"/>
     </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.4">
+    <row r="26" spans="3:19">
       <c r="C26" s="26"/>
       <c r="D26" s="27"/>
       <c r="E26" s="28"/>
@@ -8208,7 +7621,7 @@
       <c r="R26" s="60"/>
       <c r="S26" s="61"/>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.4">
+    <row r="27" spans="3:19">
       <c r="C27" s="26"/>
       <c r="D27" s="27"/>
       <c r="E27" s="28"/>
@@ -8227,7 +7640,7 @@
       <c r="R27" s="60"/>
       <c r="S27" s="61"/>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.4">
+    <row r="28" spans="3:19">
       <c r="C28" s="26"/>
       <c r="D28" s="27"/>
       <c r="E28" s="28"/>
@@ -8242,7 +7655,7 @@
       <c r="R28" s="60"/>
       <c r="S28" s="61"/>
     </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.4">
+    <row r="29" spans="3:19">
       <c r="C29" s="26"/>
       <c r="D29" s="27"/>
       <c r="E29" s="28"/>
@@ -8261,7 +7674,7 @@
       <c r="R29" s="60"/>
       <c r="S29" s="61"/>
     </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.4">
+    <row r="30" spans="3:19">
       <c r="C30" s="26"/>
       <c r="D30" s="27"/>
       <c r="E30" s="28"/>
@@ -8276,7 +7689,7 @@
       <c r="R30" s="60"/>
       <c r="S30" s="61"/>
     </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.4">
+    <row r="31" spans="3:19">
       <c r="C31" s="26"/>
       <c r="D31" s="27"/>
       <c r="E31" s="28"/>
@@ -8295,7 +7708,7 @@
       <c r="R31" s="60"/>
       <c r="S31" s="61"/>
     </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.4">
+    <row r="32" spans="3:19">
       <c r="C32" s="26"/>
       <c r="D32" s="27"/>
       <c r="E32" s="28"/>
@@ -8310,7 +7723,7 @@
       <c r="R32" s="60"/>
       <c r="S32" s="61"/>
     </row>
-    <row r="33" spans="3:19" x14ac:dyDescent="0.4">
+    <row r="33" spans="3:19">
       <c r="C33" s="26"/>
       <c r="D33" s="27"/>
       <c r="E33" s="28"/>
@@ -8329,7 +7742,7 @@
       <c r="R33" s="63"/>
       <c r="S33" s="64"/>
     </row>
-    <row r="34" spans="3:19" x14ac:dyDescent="0.4">
+    <row r="34" spans="3:19">
       <c r="C34" s="26"/>
       <c r="D34" s="27"/>
       <c r="E34" s="28"/>
@@ -8342,7 +7755,7 @@
       <c r="R34" s="20"/>
       <c r="S34" s="20"/>
     </row>
-    <row r="35" spans="3:19" x14ac:dyDescent="0.4">
+    <row r="35" spans="3:19">
       <c r="C35" s="26"/>
       <c r="D35" s="27"/>
       <c r="E35" s="28"/>
@@ -8357,7 +7770,7 @@
       <c r="R35" s="44"/>
       <c r="S35" s="25"/>
     </row>
-    <row r="36" spans="3:19" x14ac:dyDescent="0.4">
+    <row r="36" spans="3:19">
       <c r="C36" s="26"/>
       <c r="D36" s="27"/>
       <c r="E36" s="28"/>
@@ -8372,7 +7785,7 @@
       <c r="R36" s="60"/>
       <c r="S36" s="61"/>
     </row>
-    <row r="37" spans="3:19" x14ac:dyDescent="0.4">
+    <row r="37" spans="3:19">
       <c r="C37" s="26"/>
       <c r="D37" s="27"/>
       <c r="E37" s="28"/>
@@ -8391,7 +7804,7 @@
       <c r="R37" s="60"/>
       <c r="S37" s="61"/>
     </row>
-    <row r="38" spans="3:19" x14ac:dyDescent="0.4">
+    <row r="38" spans="3:19">
       <c r="C38" s="26"/>
       <c r="D38" s="27"/>
       <c r="E38" s="28"/>
@@ -8406,7 +7819,7 @@
       <c r="R38" s="60"/>
       <c r="S38" s="61"/>
     </row>
-    <row r="39" spans="3:19" x14ac:dyDescent="0.4">
+    <row r="39" spans="3:19">
       <c r="C39" s="26"/>
       <c r="D39" s="27"/>
       <c r="E39" s="28"/>
@@ -8425,7 +7838,7 @@
       <c r="R39" s="60"/>
       <c r="S39" s="61"/>
     </row>
-    <row r="40" spans="3:19" x14ac:dyDescent="0.4">
+    <row r="40" spans="3:19">
       <c r="C40" s="26"/>
       <c r="D40" s="27"/>
       <c r="E40" s="28"/>
@@ -8440,7 +7853,7 @@
       <c r="R40" s="60"/>
       <c r="S40" s="61"/>
     </row>
-    <row r="41" spans="3:19" x14ac:dyDescent="0.4">
+    <row r="41" spans="3:19">
       <c r="C41" s="26"/>
       <c r="D41" s="27"/>
       <c r="E41" s="28"/>
@@ -8459,7 +7872,7 @@
       <c r="R41" s="60"/>
       <c r="S41" s="61"/>
     </row>
-    <row r="42" spans="3:19" x14ac:dyDescent="0.4">
+    <row r="42" spans="3:19">
       <c r="C42" s="26"/>
       <c r="D42" s="27"/>
       <c r="E42" s="28"/>
@@ -8474,7 +7887,7 @@
       <c r="R42" s="60"/>
       <c r="S42" s="61"/>
     </row>
-    <row r="43" spans="3:19" x14ac:dyDescent="0.4">
+    <row r="43" spans="3:19">
       <c r="C43" s="26"/>
       <c r="D43" s="27"/>
       <c r="E43" s="28"/>
@@ -8493,7 +7906,7 @@
       <c r="R43" s="60"/>
       <c r="S43" s="61"/>
     </row>
-    <row r="44" spans="3:19" x14ac:dyDescent="0.4">
+    <row r="44" spans="3:19">
       <c r="C44" s="26"/>
       <c r="D44" s="27"/>
       <c r="E44" s="28"/>
@@ -8508,7 +7921,7 @@
       <c r="R44" s="60"/>
       <c r="S44" s="61"/>
     </row>
-    <row r="45" spans="3:19" x14ac:dyDescent="0.4">
+    <row r="45" spans="3:19">
       <c r="C45" s="26"/>
       <c r="D45" s="27"/>
       <c r="E45" s="28"/>
@@ -8527,7 +7940,7 @@
       <c r="R45" s="60"/>
       <c r="S45" s="61"/>
     </row>
-    <row r="46" spans="3:19" x14ac:dyDescent="0.4">
+    <row r="46" spans="3:19">
       <c r="C46" s="26"/>
       <c r="D46" s="27"/>
       <c r="E46" s="28"/>
@@ -8542,7 +7955,7 @@
       <c r="R46" s="60"/>
       <c r="S46" s="61"/>
     </row>
-    <row r="47" spans="3:19" x14ac:dyDescent="0.4">
+    <row r="47" spans="3:19">
       <c r="C47" s="26"/>
       <c r="D47" s="27"/>
       <c r="E47" s="28"/>
@@ -8561,7 +7974,7 @@
       <c r="R47" s="60"/>
       <c r="S47" s="61"/>
     </row>
-    <row r="48" spans="3:19" x14ac:dyDescent="0.4">
+    <row r="48" spans="3:19">
       <c r="C48" s="26"/>
       <c r="D48" s="27"/>
       <c r="E48" s="28"/>
@@ -8576,7 +7989,7 @@
       <c r="R48" s="60"/>
       <c r="S48" s="61"/>
     </row>
-    <row r="49" spans="2:21" x14ac:dyDescent="0.4">
+    <row r="49" spans="2:21">
       <c r="C49" s="26"/>
       <c r="D49" s="27"/>
       <c r="E49" s="28"/>
@@ -8595,7 +8008,7 @@
       <c r="R49" s="60"/>
       <c r="S49" s="61"/>
     </row>
-    <row r="50" spans="2:21" x14ac:dyDescent="0.4">
+    <row r="50" spans="2:21">
       <c r="C50" s="26"/>
       <c r="D50" s="27"/>
       <c r="E50" s="28"/>
@@ -8610,7 +8023,7 @@
       <c r="R50" s="60"/>
       <c r="S50" s="61"/>
     </row>
-    <row r="51" spans="2:21" x14ac:dyDescent="0.4">
+    <row r="51" spans="2:21">
       <c r="C51" s="26"/>
       <c r="D51" s="27"/>
       <c r="E51" s="28"/>
@@ -8629,7 +8042,7 @@
       <c r="R51" s="60"/>
       <c r="S51" s="61"/>
     </row>
-    <row r="52" spans="2:21" x14ac:dyDescent="0.4">
+    <row r="52" spans="2:21">
       <c r="C52" s="26"/>
       <c r="D52" s="27"/>
       <c r="E52" s="28"/>
@@ -8644,7 +8057,7 @@
       <c r="R52" s="60"/>
       <c r="S52" s="61"/>
     </row>
-    <row r="53" spans="2:21" x14ac:dyDescent="0.4">
+    <row r="53" spans="2:21">
       <c r="C53" s="65"/>
       <c r="D53" s="66"/>
       <c r="E53" s="67"/>
@@ -8663,7 +8076,7 @@
       <c r="R53" s="63"/>
       <c r="S53" s="64"/>
     </row>
-    <row r="54" spans="2:21" x14ac:dyDescent="0.4">
+    <row r="54" spans="2:21">
       <c r="C54" s="65"/>
       <c r="D54" s="66"/>
       <c r="E54" s="67"/>
@@ -8674,7 +8087,7 @@
       <c r="R54" s="20"/>
       <c r="S54" s="20"/>
     </row>
-    <row r="55" spans="2:21" x14ac:dyDescent="0.4">
+    <row r="55" spans="2:21">
       <c r="C55" s="65"/>
       <c r="D55" s="66"/>
       <c r="E55" s="67"/>
@@ -8682,12 +8095,12 @@
       <c r="K55" s="69"/>
       <c r="L55" s="70"/>
       <c r="Q55" s="43" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="R55" s="44"/>
       <c r="S55" s="25"/>
     </row>
-    <row r="56" spans="2:21" x14ac:dyDescent="0.4">
+    <row r="56" spans="2:21">
       <c r="C56" s="65"/>
       <c r="D56" s="66"/>
       <c r="E56" s="67"/>
@@ -8695,13 +8108,13 @@
       <c r="K56" s="69"/>
       <c r="L56" s="70"/>
       <c r="O56" s="45" t="s">
-        <v>153</v>
+        <v>117</v>
       </c>
       <c r="Q56" s="46"/>
       <c r="R56" s="47"/>
       <c r="S56" s="48"/>
     </row>
-    <row r="57" spans="2:21" x14ac:dyDescent="0.4">
+    <row r="57" spans="2:21">
       <c r="C57" s="65"/>
       <c r="D57" s="66"/>
       <c r="E57" s="67"/>
@@ -8720,7 +8133,7 @@
       <c r="R57" s="54"/>
       <c r="S57" s="55"/>
     </row>
-    <row r="58" spans="2:21" x14ac:dyDescent="0.4">
+    <row r="58" spans="2:21">
       <c r="C58" s="65"/>
       <c r="D58" s="66"/>
       <c r="E58" s="67"/>
@@ -8728,13 +8141,13 @@
       <c r="K58" s="69"/>
       <c r="L58" s="70"/>
       <c r="O58" s="45" t="s">
-        <v>154</v>
+        <v>118</v>
       </c>
       <c r="Q58" s="53"/>
       <c r="R58" s="54"/>
       <c r="S58" s="55"/>
     </row>
-    <row r="59" spans="2:21" x14ac:dyDescent="0.4">
+    <row r="59" spans="2:21">
       <c r="C59" s="65"/>
       <c r="D59" s="66"/>
       <c r="E59" s="67"/>
@@ -8753,7 +8166,7 @@
       <c r="R59" s="54"/>
       <c r="S59" s="55"/>
     </row>
-    <row r="60" spans="2:21" x14ac:dyDescent="0.4">
+    <row r="60" spans="2:21">
       <c r="C60" s="65"/>
       <c r="D60" s="66"/>
       <c r="E60" s="67"/>
@@ -8761,13 +8174,13 @@
       <c r="K60" s="69"/>
       <c r="L60" s="70"/>
       <c r="O60" s="45" t="s">
-        <v>155</v>
+        <v>119</v>
       </c>
       <c r="Q60" s="53"/>
       <c r="R60" s="54"/>
       <c r="S60" s="55"/>
     </row>
-    <row r="61" spans="2:21" x14ac:dyDescent="0.4">
+    <row r="61" spans="2:21">
       <c r="C61" s="71"/>
       <c r="D61" s="72"/>
       <c r="E61" s="73"/>
@@ -8786,8 +8199,8 @@
       <c r="R61" s="57"/>
       <c r="S61" s="58"/>
     </row>
-    <row r="63" spans="2:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="64" spans="2:21" x14ac:dyDescent="0.4">
+    <row r="63" spans="2:21" ht="16.5" thickBot="1"/>
+    <row r="64" spans="2:21">
       <c r="B64" s="77"/>
       <c r="C64" s="78"/>
       <c r="D64" s="78"/>
@@ -8809,7 +8222,7 @@
       <c r="T64" s="78"/>
       <c r="U64" s="79"/>
     </row>
-    <row r="65" spans="2:38" x14ac:dyDescent="0.4">
+    <row r="65" spans="2:37">
       <c r="B65" s="80"/>
       <c r="C65" s="29" t="s">
         <v>51</v>
@@ -8817,49 +8230,56 @@
       <c r="D65" s="30"/>
       <c r="E65" s="25"/>
       <c r="J65" s="43" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K65" s="44"/>
       <c r="L65" s="25"/>
-      <c r="Q65" s="43" t="s">
-        <v>73</v>
-      </c>
-      <c r="R65" s="44"/>
-      <c r="S65" s="25"/>
+      <c r="M65" s="124"/>
+      <c r="N65" s="124"/>
+      <c r="O65" s="124"/>
+      <c r="P65" s="124"/>
+      <c r="Q65" s="125"/>
+      <c r="R65" s="124"/>
+      <c r="S65" s="124"/>
+      <c r="T65" s="124"/>
       <c r="U65" s="81"/>
-      <c r="Z65" s="43" t="s">
-        <v>86</v>
-      </c>
-      <c r="AA65" s="44"/>
-      <c r="AB65" s="25"/>
-      <c r="AH65" s="82"/>
-    </row>
-    <row r="66" spans="2:38" x14ac:dyDescent="0.4">
+      <c r="Z65" s="129" t="s">
+        <v>81</v>
+      </c>
+      <c r="AA65" s="107"/>
+      <c r="AG65" s="82"/>
+    </row>
+    <row r="66" spans="2:37">
       <c r="B66" s="80"/>
       <c r="C66" s="83"/>
       <c r="D66" s="84"/>
       <c r="E66" s="85"/>
       <c r="G66" s="19" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J66" s="46"/>
       <c r="K66" s="47"/>
       <c r="L66" s="48"/>
-      <c r="Q66" s="46"/>
-      <c r="R66" s="47"/>
-      <c r="S66" s="48"/>
+      <c r="M66" s="124"/>
+      <c r="N66" s="124"/>
+      <c r="O66" s="124"/>
+      <c r="P66" s="124"/>
+      <c r="Q66" s="124"/>
+      <c r="R66" s="124"/>
+      <c r="S66" s="124"/>
+      <c r="T66" s="124"/>
       <c r="U66" s="81"/>
       <c r="V66" s="42"/>
       <c r="W66" s="42" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="X66" s="42"/>
       <c r="Y66" s="42"/>
-      <c r="Z66" s="116"/>
-      <c r="AA66" s="117"/>
-      <c r="AB66" s="118"/>
-    </row>
-    <row r="67" spans="2:38" x14ac:dyDescent="0.4">
+      <c r="Z66" s="105"/>
+      <c r="AA66" s="106"/>
+      <c r="AB66" s="107"/>
+    </row>
+    <row r="67" spans="2:37">
       <c r="B67" s="80"/>
       <c r="C67" s="68"/>
       <c r="D67" s="69"/>
@@ -8869,52 +8289,49 @@
       <c r="H67" s="20"/>
       <c r="I67" s="21"/>
       <c r="J67" s="53"/>
-      <c r="K67" s="54"/>
+      <c r="K67" s="123"/>
       <c r="L67" s="55"/>
-      <c r="N67" s="19" t="s">
-        <v>93</v>
-      </c>
-      <c r="Q67" s="53"/>
-      <c r="R67" s="54"/>
-      <c r="S67" s="55"/>
+      <c r="Q67" s="43" t="s">
+        <v>72</v>
+      </c>
+      <c r="R67" s="44"/>
+      <c r="S67" s="25"/>
       <c r="U67" s="81"/>
       <c r="Z67" s="59"/>
-      <c r="AA67" s="60"/>
+      <c r="AA67" s="128"/>
       <c r="AB67" s="61"/>
     </row>
-    <row r="68" spans="2:38" x14ac:dyDescent="0.4">
+    <row r="68" spans="2:37">
       <c r="B68" s="80"/>
       <c r="C68" s="68"/>
       <c r="D68" s="69"/>
       <c r="E68" s="70"/>
       <c r="G68" s="19" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J68" s="53"/>
-      <c r="K68" s="54"/>
+      <c r="K68" s="123"/>
       <c r="L68" s="55"/>
-      <c r="M68" s="20"/>
-      <c r="N68" s="20"/>
-      <c r="O68" s="20"/>
-      <c r="P68" s="20"/>
-      <c r="Q68" s="53"/>
-      <c r="R68" s="54"/>
-      <c r="S68" s="55"/>
-      <c r="T68" s="22"/>
+      <c r="N68" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q68" s="46"/>
+      <c r="R68" s="47"/>
+      <c r="S68" s="48"/>
       <c r="U68" s="81"/>
       <c r="V68" s="42"/>
       <c r="W68" s="42" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="X68" s="42"/>
       <c r="Y68" s="42"/>
       <c r="Z68" s="59"/>
-      <c r="AA68" s="60"/>
+      <c r="AA68" s="128"/>
       <c r="AB68" s="61"/>
-      <c r="AD68" s="31"/>
-      <c r="AL68" s="31"/>
-    </row>
-    <row r="69" spans="2:38" x14ac:dyDescent="0.4">
+      <c r="AC68" s="31"/>
+      <c r="AK68" s="31"/>
+    </row>
+    <row r="69" spans="2:37">
       <c r="B69" s="80"/>
       <c r="C69" s="68"/>
       <c r="D69" s="69"/>
@@ -8924,64 +8341,70 @@
       <c r="H69" s="20"/>
       <c r="I69" s="21"/>
       <c r="J69" s="53"/>
-      <c r="K69" s="54"/>
+      <c r="K69" s="123"/>
       <c r="L69" s="55"/>
-      <c r="N69" s="19" t="s">
-        <v>94</v>
-      </c>
+      <c r="M69" s="20"/>
+      <c r="N69" s="20"/>
+      <c r="O69" s="20"/>
+      <c r="P69" s="20"/>
       <c r="Q69" s="53"/>
       <c r="R69" s="54"/>
       <c r="S69" s="55"/>
       <c r="T69" s="22"/>
       <c r="U69" s="81"/>
       <c r="Z69" s="59"/>
-      <c r="AA69" s="60"/>
+      <c r="AA69" s="128"/>
       <c r="AB69" s="61"/>
-      <c r="AD69" s="31"/>
-      <c r="AL69" s="31"/>
-    </row>
-    <row r="70" spans="2:38" x14ac:dyDescent="0.4">
+      <c r="AC69" s="31"/>
+      <c r="AK69" s="31"/>
+    </row>
+    <row r="70" spans="2:37">
       <c r="B70" s="80"/>
       <c r="C70" s="68"/>
       <c r="D70" s="69"/>
       <c r="E70" s="70"/>
       <c r="I70" s="86"/>
       <c r="J70" s="53"/>
-      <c r="K70" s="54"/>
+      <c r="K70" s="123"/>
       <c r="L70" s="55"/>
-      <c r="M70" s="17"/>
-      <c r="N70" s="20"/>
-      <c r="O70" s="20"/>
-      <c r="P70" s="21"/>
-      <c r="Q70" s="56"/>
-      <c r="R70" s="57"/>
-      <c r="S70" s="58"/>
-      <c r="T70" s="22"/>
+      <c r="N70" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q70" s="53"/>
+      <c r="R70" s="54"/>
+      <c r="S70" s="55"/>
       <c r="U70" s="81"/>
       <c r="V70" s="42"/>
       <c r="W70" s="42" t="s">
-        <v>156</v>
+        <v>124</v>
       </c>
       <c r="X70" s="42"/>
       <c r="Y70" s="42"/>
       <c r="Z70" s="59"/>
-      <c r="AA70" s="60"/>
+      <c r="AA70" s="128"/>
       <c r="AB70" s="61"/>
     </row>
-    <row r="71" spans="2:38" x14ac:dyDescent="0.4">
+    <row r="71" spans="2:37">
       <c r="B71" s="80"/>
       <c r="C71" s="68"/>
       <c r="D71" s="69"/>
       <c r="E71" s="70"/>
       <c r="J71" s="53"/>
-      <c r="K71" s="54"/>
+      <c r="K71" s="123"/>
       <c r="L71" s="55"/>
+      <c r="M71" s="20"/>
+      <c r="N71" s="20"/>
+      <c r="O71" s="20"/>
+      <c r="P71" s="20"/>
+      <c r="Q71" s="56"/>
+      <c r="R71" s="57"/>
+      <c r="S71" s="58"/>
       <c r="U71" s="81"/>
       <c r="Z71" s="59"/>
-      <c r="AA71" s="60"/>
+      <c r="AA71" s="128"/>
       <c r="AB71" s="61"/>
     </row>
-    <row r="72" spans="2:38" x14ac:dyDescent="0.4">
+    <row r="72" spans="2:37">
       <c r="B72" s="80"/>
       <c r="C72" s="68"/>
       <c r="D72" s="69"/>
@@ -8989,23 +8412,15 @@
       <c r="J72" s="53"/>
       <c r="K72" s="54"/>
       <c r="L72" s="55"/>
-      <c r="Q72" s="43" t="s">
-        <v>72</v>
-      </c>
-      <c r="R72" s="44"/>
-      <c r="S72" s="25"/>
+      <c r="N72" s="42" t="s">
+        <v>166</v>
+      </c>
       <c r="U72" s="81"/>
-      <c r="V72" s="42"/>
-      <c r="W72" s="42" t="s">
-        <v>174</v>
-      </c>
-      <c r="X72" s="42"/>
-      <c r="Y72" s="42"/>
       <c r="Z72" s="59"/>
-      <c r="AA72" s="60"/>
+      <c r="AA72" s="128"/>
       <c r="AB72" s="61"/>
     </row>
-    <row r="73" spans="2:38" x14ac:dyDescent="0.4">
+    <row r="73" spans="2:37">
       <c r="B73" s="80"/>
       <c r="C73" s="68"/>
       <c r="D73" s="69"/>
@@ -9013,18 +8428,24 @@
       <c r="J73" s="53"/>
       <c r="K73" s="54"/>
       <c r="L73" s="55"/>
-      <c r="N73" s="19" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q73" s="46"/>
-      <c r="R73" s="47"/>
-      <c r="S73" s="48"/>
-      <c r="U73" s="81"/>
-      <c r="Z73" s="53"/>
-      <c r="AA73" s="54"/>
-      <c r="AB73" s="55"/>
-    </row>
-    <row r="74" spans="2:38" x14ac:dyDescent="0.4">
+      <c r="M73" s="17"/>
+      <c r="N73" s="20"/>
+      <c r="O73" s="20"/>
+      <c r="P73" s="20"/>
+      <c r="Q73" s="20"/>
+      <c r="R73" s="20"/>
+      <c r="S73" s="20"/>
+      <c r="T73" s="20"/>
+      <c r="U73" s="108"/>
+      <c r="V73" s="20"/>
+      <c r="W73" s="20"/>
+      <c r="X73" s="20"/>
+      <c r="Y73" s="21"/>
+      <c r="Z73" s="62"/>
+      <c r="AA73" s="63"/>
+      <c r="AB73" s="64"/>
+    </row>
+    <row r="74" spans="2:37">
       <c r="B74" s="80"/>
       <c r="C74" s="68"/>
       <c r="D74" s="69"/>
@@ -9032,21 +8453,9 @@
       <c r="J74" s="53"/>
       <c r="K74" s="54"/>
       <c r="L74" s="55"/>
-      <c r="M74" s="20"/>
-      <c r="N74" s="20"/>
-      <c r="O74" s="20"/>
-      <c r="P74" s="20"/>
-      <c r="Q74" s="53"/>
-      <c r="R74" s="54"/>
-      <c r="S74" s="55"/>
-      <c r="T74" s="22"/>
       <c r="U74" s="81"/>
-      <c r="V74" s="80"/>
-      <c r="Z74" s="53"/>
-      <c r="AA74" s="54"/>
-      <c r="AB74" s="55"/>
-    </row>
-    <row r="75" spans="2:38" x14ac:dyDescent="0.4">
+    </row>
+    <row r="75" spans="2:37">
       <c r="B75" s="80"/>
       <c r="C75" s="68"/>
       <c r="D75" s="69"/>
@@ -9054,19 +8463,14 @@
       <c r="J75" s="53"/>
       <c r="K75" s="54"/>
       <c r="L75" s="55"/>
-      <c r="N75" s="19" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q75" s="53"/>
-      <c r="R75" s="54"/>
-      <c r="S75" s="55"/>
+      <c r="Q75" s="43" t="s">
+        <v>71</v>
+      </c>
+      <c r="R75" s="44"/>
+      <c r="S75" s="25"/>
       <c r="U75" s="81"/>
-      <c r="V75" s="80"/>
-      <c r="Z75" s="53"/>
-      <c r="AA75" s="54"/>
-      <c r="AB75" s="55"/>
-    </row>
-    <row r="76" spans="2:38" x14ac:dyDescent="0.4">
+    </row>
+    <row r="76" spans="2:37">
       <c r="B76" s="80"/>
       <c r="C76" s="68"/>
       <c r="D76" s="69"/>
@@ -9074,19 +8478,15 @@
       <c r="J76" s="53"/>
       <c r="K76" s="54"/>
       <c r="L76" s="55"/>
-      <c r="M76" s="20"/>
-      <c r="N76" s="20"/>
-      <c r="O76" s="20"/>
-      <c r="P76" s="20"/>
-      <c r="Q76" s="56"/>
-      <c r="R76" s="57"/>
-      <c r="S76" s="58"/>
+      <c r="N76" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q76" s="46"/>
+      <c r="R76" s="47"/>
+      <c r="S76" s="48"/>
       <c r="U76" s="81"/>
-      <c r="Z76" s="53"/>
-      <c r="AA76" s="54"/>
-      <c r="AB76" s="55"/>
-    </row>
-    <row r="77" spans="2:38" x14ac:dyDescent="0.4">
+    </row>
+    <row r="77" spans="2:37">
       <c r="B77" s="80"/>
       <c r="C77" s="68"/>
       <c r="D77" s="69"/>
@@ -9094,15 +8494,21 @@
       <c r="J77" s="53"/>
       <c r="K77" s="54"/>
       <c r="L77" s="55"/>
-      <c r="N77" s="42" t="s">
-        <v>186</v>
-      </c>
+      <c r="M77" s="20"/>
+      <c r="N77" s="20"/>
+      <c r="O77" s="20"/>
+      <c r="P77" s="20"/>
+      <c r="Q77" s="53"/>
+      <c r="R77" s="54"/>
+      <c r="S77" s="55"/>
       <c r="U77" s="81"/>
-      <c r="Z77" s="53"/>
-      <c r="AA77" s="54"/>
-      <c r="AB77" s="55"/>
-    </row>
-    <row r="78" spans="2:38" x14ac:dyDescent="0.4">
+      <c r="Z77" s="43" t="s">
+        <v>169</v>
+      </c>
+      <c r="AA77" s="44"/>
+      <c r="AB77" s="25"/>
+    </row>
+    <row r="78" spans="2:37">
       <c r="B78" s="80"/>
       <c r="C78" s="68"/>
       <c r="D78" s="69"/>
@@ -9110,231 +8516,234 @@
       <c r="J78" s="53"/>
       <c r="K78" s="54"/>
       <c r="L78" s="55"/>
-      <c r="M78" s="17"/>
-      <c r="N78" s="20"/>
-      <c r="O78" s="20"/>
-      <c r="P78" s="20"/>
-      <c r="Q78" s="20"/>
-      <c r="R78" s="20"/>
-      <c r="S78" s="20"/>
-      <c r="T78" s="20"/>
-      <c r="U78" s="119"/>
-      <c r="V78" s="20"/>
-      <c r="W78" s="20"/>
-      <c r="X78" s="20"/>
-      <c r="Y78" s="21"/>
-      <c r="Z78" s="56"/>
-      <c r="AA78" s="57"/>
-      <c r="AB78" s="58"/>
-    </row>
-    <row r="79" spans="2:38" x14ac:dyDescent="0.4">
+      <c r="N78" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q78" s="53"/>
+      <c r="R78" s="54"/>
+      <c r="S78" s="55"/>
+      <c r="U78" s="81"/>
+      <c r="Z78" s="105"/>
+      <c r="AA78" s="106"/>
+      <c r="AB78" s="107"/>
+    </row>
+    <row r="79" spans="2:37">
       <c r="B79" s="80"/>
       <c r="C79" s="68"/>
       <c r="D79" s="69"/>
       <c r="E79" s="70"/>
-      <c r="J79" s="53"/>
-      <c r="K79" s="54"/>
-      <c r="L79" s="55"/>
+      <c r="J79" s="56"/>
+      <c r="K79" s="57"/>
+      <c r="L79" s="58"/>
+      <c r="M79" s="20"/>
+      <c r="N79" s="20"/>
+      <c r="O79" s="20"/>
+      <c r="P79" s="20"/>
+      <c r="Q79" s="53"/>
+      <c r="R79" s="54"/>
+      <c r="S79" s="55"/>
       <c r="U79" s="81"/>
-    </row>
-    <row r="80" spans="2:38" x14ac:dyDescent="0.4">
+      <c r="V79" s="42"/>
+      <c r="W79" s="42" t="s">
+        <v>125</v>
+      </c>
+      <c r="X79" s="42"/>
+      <c r="Y79" s="42"/>
+      <c r="Z79" s="59"/>
+      <c r="AA79" s="128"/>
+      <c r="AB79" s="61"/>
+    </row>
+    <row r="80" spans="2:37">
       <c r="B80" s="80"/>
       <c r="C80" s="68"/>
       <c r="D80" s="69"/>
       <c r="E80" s="70"/>
-      <c r="J80" s="53"/>
-      <c r="K80" s="54"/>
-      <c r="L80" s="55"/>
-      <c r="Q80" s="43" t="s">
-        <v>71</v>
-      </c>
-      <c r="R80" s="44"/>
-      <c r="S80" s="25"/>
+      <c r="F80" s="25"/>
+      <c r="G80" s="42" t="s">
+        <v>84</v>
+      </c>
+      <c r="H80" s="42"/>
+      <c r="I80" s="42"/>
+      <c r="J80" s="42"/>
+      <c r="K80" s="42"/>
+      <c r="L80" s="42"/>
+      <c r="M80" s="42"/>
+      <c r="N80" s="42"/>
+      <c r="O80" s="42"/>
+      <c r="P80" s="87"/>
+      <c r="Q80" s="53"/>
+      <c r="R80" s="54"/>
+      <c r="S80" s="55"/>
       <c r="U80" s="81"/>
-      <c r="Z80" s="43" t="s">
-        <v>85</v>
-      </c>
-      <c r="AA80" s="44"/>
-      <c r="AB80" s="25"/>
-    </row>
-    <row r="81" spans="2:28" x14ac:dyDescent="0.4">
+      <c r="Z80" s="59"/>
+      <c r="AA80" s="128"/>
+      <c r="AB80" s="61"/>
+    </row>
+    <row r="81" spans="2:28">
       <c r="B81" s="80"/>
       <c r="C81" s="68"/>
       <c r="D81" s="69"/>
       <c r="E81" s="70"/>
-      <c r="J81" s="53"/>
-      <c r="K81" s="54"/>
-      <c r="L81" s="55"/>
-      <c r="N81" s="19" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q81" s="46"/>
-      <c r="R81" s="47"/>
-      <c r="S81" s="48"/>
+      <c r="Q81" s="56"/>
+      <c r="R81" s="57"/>
+      <c r="S81" s="58"/>
       <c r="U81" s="81"/>
-      <c r="Z81" s="46"/>
-      <c r="AA81" s="47"/>
-      <c r="AB81" s="48"/>
-    </row>
-    <row r="82" spans="2:28" x14ac:dyDescent="0.4">
+      <c r="Z81" s="59"/>
+      <c r="AA81" s="128"/>
+      <c r="AB81" s="61"/>
+    </row>
+    <row r="82" spans="2:28">
       <c r="B82" s="80"/>
       <c r="C82" s="68"/>
       <c r="D82" s="69"/>
       <c r="E82" s="70"/>
-      <c r="J82" s="53"/>
-      <c r="K82" s="54"/>
-      <c r="L82" s="55"/>
-      <c r="M82" s="20"/>
-      <c r="N82" s="20"/>
-      <c r="O82" s="20"/>
-      <c r="P82" s="20"/>
-      <c r="Q82" s="53"/>
-      <c r="R82" s="54"/>
-      <c r="S82" s="55"/>
       <c r="U82" s="81"/>
-      <c r="Z82" s="53"/>
-      <c r="AA82" s="54"/>
-      <c r="AB82" s="55"/>
-    </row>
-    <row r="83" spans="2:28" x14ac:dyDescent="0.4">
+      <c r="Z82" s="59"/>
+      <c r="AA82" s="128"/>
+      <c r="AB82" s="61"/>
+    </row>
+    <row r="83" spans="2:28">
       <c r="B83" s="80"/>
       <c r="C83" s="68"/>
       <c r="D83" s="69"/>
       <c r="E83" s="70"/>
-      <c r="J83" s="53"/>
-      <c r="K83" s="54"/>
-      <c r="L83" s="55"/>
-      <c r="N83" s="19" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q83" s="53"/>
-      <c r="R83" s="54"/>
-      <c r="S83" s="55"/>
+      <c r="I83" s="126"/>
+      <c r="J83" s="43" t="s">
+        <v>148</v>
+      </c>
+      <c r="K83" s="44"/>
+      <c r="L83" s="25"/>
+      <c r="M83" s="124"/>
+      <c r="N83" s="124"/>
+      <c r="O83" s="124"/>
+      <c r="P83" s="124"/>
+      <c r="Q83" s="125"/>
+      <c r="R83" s="124"/>
+      <c r="S83" s="124"/>
+      <c r="T83" s="124"/>
       <c r="U83" s="81"/>
-      <c r="Z83" s="53"/>
-      <c r="AA83" s="54"/>
-      <c r="AB83" s="55"/>
-    </row>
-    <row r="84" spans="2:28" x14ac:dyDescent="0.4">
+      <c r="Z83" s="59"/>
+      <c r="AA83" s="128"/>
+      <c r="AB83" s="61"/>
+    </row>
+    <row r="84" spans="2:28">
       <c r="B84" s="80"/>
       <c r="C84" s="68"/>
       <c r="D84" s="69"/>
       <c r="E84" s="70"/>
-      <c r="J84" s="56"/>
-      <c r="K84" s="57"/>
-      <c r="L84" s="58"/>
-      <c r="M84" s="20"/>
-      <c r="N84" s="20"/>
-      <c r="O84" s="20"/>
-      <c r="P84" s="20"/>
-      <c r="Q84" s="53"/>
-      <c r="R84" s="54"/>
-      <c r="S84" s="55"/>
+      <c r="G84" s="19" t="s">
+        <v>167</v>
+      </c>
+      <c r="I84" s="126"/>
+      <c r="J84" s="46"/>
+      <c r="K84" s="47"/>
+      <c r="L84" s="48"/>
+      <c r="M84" s="124"/>
+      <c r="N84" s="124"/>
+      <c r="O84" s="124"/>
+      <c r="P84" s="124"/>
+      <c r="Q84" s="124"/>
+      <c r="R84" s="124"/>
+      <c r="S84" s="124"/>
+      <c r="T84" s="124"/>
       <c r="U84" s="81"/>
-      <c r="V84" s="42"/>
-      <c r="W84" s="42" t="s">
-        <v>176</v>
-      </c>
-      <c r="X84" s="42"/>
-      <c r="Y84" s="42"/>
-      <c r="Z84" s="53"/>
-      <c r="AA84" s="54"/>
-      <c r="AB84" s="55"/>
-    </row>
-    <row r="85" spans="2:28" x14ac:dyDescent="0.4">
+      <c r="Z84" s="59"/>
+      <c r="AA84" s="128"/>
+      <c r="AB84" s="61"/>
+    </row>
+    <row r="85" spans="2:28">
       <c r="B85" s="80"/>
       <c r="C85" s="68"/>
       <c r="D85" s="69"/>
       <c r="E85" s="70"/>
-      <c r="F85" s="25"/>
-      <c r="G85" s="42" t="s">
-        <v>89</v>
-      </c>
-      <c r="H85" s="42"/>
-      <c r="I85" s="42"/>
-      <c r="J85" s="42"/>
-      <c r="K85" s="42"/>
-      <c r="L85" s="42"/>
-      <c r="M85" s="42"/>
-      <c r="N85" s="42"/>
-      <c r="O85" s="42"/>
-      <c r="P85" s="87"/>
-      <c r="Q85" s="53"/>
-      <c r="R85" s="54"/>
-      <c r="S85" s="55"/>
+      <c r="F85" s="20"/>
+      <c r="G85" s="20"/>
+      <c r="H85" s="20"/>
+      <c r="I85" s="20"/>
+      <c r="J85" s="53"/>
+      <c r="K85" s="123"/>
+      <c r="L85" s="55"/>
+      <c r="M85" s="124"/>
+      <c r="N85" s="124"/>
+      <c r="O85" s="124"/>
+      <c r="P85" s="124"/>
+      <c r="Q85" s="124"/>
+      <c r="R85" s="124"/>
+      <c r="S85" s="124"/>
+      <c r="T85" s="124"/>
       <c r="U85" s="81"/>
-      <c r="Z85" s="53"/>
-      <c r="AA85" s="54"/>
-      <c r="AB85" s="55"/>
-    </row>
-    <row r="86" spans="2:28" x14ac:dyDescent="0.4">
+      <c r="V85" s="42"/>
+      <c r="W85" s="42" t="s">
+        <v>126</v>
+      </c>
+      <c r="X85" s="42"/>
+      <c r="Y85" s="42"/>
+      <c r="Z85" s="59"/>
+      <c r="AA85" s="128"/>
+      <c r="AB85" s="61"/>
+    </row>
+    <row r="86" spans="2:28">
       <c r="B86" s="80"/>
       <c r="C86" s="68"/>
       <c r="D86" s="69"/>
       <c r="E86" s="70"/>
-      <c r="Q86" s="56"/>
-      <c r="R86" s="57"/>
-      <c r="S86" s="58"/>
-      <c r="U86" s="81"/>
-      <c r="Z86" s="53"/>
-      <c r="AA86" s="54"/>
-      <c r="AB86" s="55"/>
-    </row>
-    <row r="87" spans="2:28" x14ac:dyDescent="0.4">
+      <c r="G86" s="19" t="s">
+        <v>168</v>
+      </c>
+      <c r="I86" s="126"/>
+      <c r="J86" s="53"/>
+      <c r="K86" s="123"/>
+      <c r="L86" s="55"/>
+      <c r="M86" s="121"/>
+      <c r="N86" s="127"/>
+      <c r="O86" s="122"/>
+      <c r="P86" s="122"/>
+      <c r="Q86" s="122"/>
+      <c r="R86" s="122"/>
+      <c r="S86" s="122"/>
+      <c r="T86" s="122"/>
+      <c r="U86" s="108"/>
+      <c r="Z86" s="59"/>
+      <c r="AA86" s="128"/>
+      <c r="AB86" s="61"/>
+    </row>
+    <row r="87" spans="2:28">
       <c r="B87" s="80"/>
       <c r="C87" s="68"/>
       <c r="D87" s="69"/>
       <c r="E87" s="70"/>
+      <c r="F87" s="20"/>
+      <c r="G87" s="20"/>
+      <c r="H87" s="20"/>
+      <c r="I87" s="20"/>
+      <c r="J87" s="56"/>
+      <c r="K87" s="57"/>
+      <c r="L87" s="58"/>
       <c r="U87" s="81"/>
-      <c r="Z87" s="53"/>
-      <c r="AA87" s="54"/>
-      <c r="AB87" s="55"/>
-    </row>
-    <row r="88" spans="2:28" x14ac:dyDescent="0.4">
+      <c r="Z87" s="62"/>
+      <c r="AA87" s="63"/>
+      <c r="AB87" s="64"/>
+    </row>
+    <row r="88" spans="2:28">
       <c r="B88" s="80"/>
       <c r="C88" s="68"/>
       <c r="D88" s="69"/>
       <c r="E88" s="70"/>
-      <c r="I88" s="88"/>
-      <c r="J88" s="89"/>
-      <c r="K88" s="89"/>
-      <c r="L88" s="89"/>
-      <c r="M88" s="89"/>
-      <c r="N88" s="89"/>
-      <c r="O88" s="89"/>
-      <c r="P88" s="89"/>
-      <c r="Q88" s="89"/>
-      <c r="R88" s="89"/>
-      <c r="S88" s="89"/>
-      <c r="T88" s="90"/>
       <c r="U88" s="81"/>
-      <c r="Z88" s="53"/>
-      <c r="AA88" s="54"/>
-      <c r="AB88" s="55"/>
-    </row>
-    <row r="89" spans="2:28" x14ac:dyDescent="0.4">
+    </row>
+    <row r="89" spans="2:28">
       <c r="B89" s="80"/>
       <c r="C89" s="68"/>
       <c r="D89" s="69"/>
       <c r="E89" s="70"/>
-      <c r="I89" s="91"/>
       <c r="J89" s="43" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K89" s="44"/>
       <c r="L89" s="25"/>
-      <c r="Q89" s="43" t="s">
-        <v>148</v>
-      </c>
-      <c r="R89" s="44"/>
-      <c r="S89" s="25"/>
-      <c r="T89" s="92"/>
       <c r="U89" s="81"/>
-      <c r="Z89" s="53"/>
-      <c r="AA89" s="54"/>
-      <c r="AB89" s="55"/>
-    </row>
-    <row r="90" spans="2:28" x14ac:dyDescent="0.4">
+    </row>
+    <row r="90" spans="2:28">
       <c r="B90" s="80"/>
       <c r="C90" s="68"/>
       <c r="D90" s="69"/>
@@ -9342,20 +8751,13 @@
       <c r="G90" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="I90" s="91"/>
+      <c r="I90" s="42"/>
       <c r="J90" s="46"/>
       <c r="K90" s="47"/>
       <c r="L90" s="48"/>
-      <c r="Q90" s="46"/>
-      <c r="R90" s="47"/>
-      <c r="S90" s="48"/>
-      <c r="T90" s="92"/>
       <c r="U90" s="81"/>
-      <c r="Z90" s="53"/>
-      <c r="AA90" s="54"/>
-      <c r="AB90" s="55"/>
-    </row>
-    <row r="91" spans="2:28" x14ac:dyDescent="0.4">
+    </row>
+    <row r="91" spans="2:28">
       <c r="B91" s="80"/>
       <c r="C91" s="68"/>
       <c r="D91" s="69"/>
@@ -9363,376 +8765,78 @@
       <c r="F91" s="20"/>
       <c r="G91" s="20"/>
       <c r="H91" s="20"/>
-      <c r="I91" s="93"/>
-      <c r="J91" s="53"/>
-      <c r="K91" s="54"/>
-      <c r="L91" s="55"/>
-      <c r="N91" s="19" t="s">
-        <v>149</v>
-      </c>
-      <c r="Q91" s="53"/>
-      <c r="R91" s="54"/>
-      <c r="S91" s="55"/>
-      <c r="T91" s="92"/>
+      <c r="J91" s="56"/>
+      <c r="K91" s="57"/>
+      <c r="L91" s="58"/>
       <c r="U91" s="81"/>
-      <c r="Z91" s="53"/>
-      <c r="AA91" s="54"/>
-      <c r="AB91" s="55"/>
-    </row>
-    <row r="92" spans="2:28" x14ac:dyDescent="0.4">
+    </row>
+    <row r="92" spans="2:28">
       <c r="B92" s="80"/>
       <c r="C92" s="68"/>
       <c r="D92" s="69"/>
       <c r="E92" s="70"/>
-      <c r="G92" s="19" t="s">
-        <v>84</v>
-      </c>
-      <c r="I92" s="91"/>
-      <c r="J92" s="53"/>
-      <c r="K92" s="54"/>
-      <c r="L92" s="55"/>
-      <c r="M92" s="20"/>
-      <c r="N92" s="35"/>
-      <c r="O92" s="20"/>
-      <c r="P92" s="21"/>
-      <c r="Q92" s="53"/>
-      <c r="R92" s="54"/>
-      <c r="S92" s="55"/>
-      <c r="T92" s="92"/>
       <c r="U92" s="81"/>
-      <c r="Z92" s="53"/>
-      <c r="AA92" s="54"/>
-      <c r="AB92" s="55"/>
-    </row>
-    <row r="93" spans="2:28" x14ac:dyDescent="0.4">
+    </row>
+    <row r="93" spans="2:28">
       <c r="B93" s="80"/>
       <c r="C93" s="68"/>
       <c r="D93" s="69"/>
       <c r="E93" s="70"/>
-      <c r="F93" s="20"/>
-      <c r="G93" s="20"/>
-      <c r="H93" s="20"/>
-      <c r="I93" s="93"/>
-      <c r="J93" s="53"/>
-      <c r="K93" s="54"/>
-      <c r="L93" s="55"/>
-      <c r="N93" s="19" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q93" s="53"/>
-      <c r="R93" s="54"/>
-      <c r="S93" s="55"/>
-      <c r="T93" s="92"/>
-      <c r="U93" s="94"/>
-      <c r="V93" s="42"/>
-      <c r="W93" s="42" t="s">
-        <v>177</v>
-      </c>
-      <c r="X93" s="42"/>
-      <c r="Y93" s="42"/>
-      <c r="Z93" s="53"/>
-      <c r="AA93" s="54"/>
-      <c r="AB93" s="55"/>
-    </row>
-    <row r="94" spans="2:28" x14ac:dyDescent="0.4">
+      <c r="I93" s="86"/>
+      <c r="J93" s="43" t="s">
+        <v>169</v>
+      </c>
+      <c r="K93" s="44"/>
+      <c r="L93" s="25"/>
+      <c r="U93" s="81"/>
+    </row>
+    <row r="94" spans="2:28">
       <c r="B94" s="80"/>
       <c r="C94" s="68"/>
       <c r="D94" s="69"/>
       <c r="E94" s="70"/>
-      <c r="I94" s="91"/>
-      <c r="J94" s="53"/>
-      <c r="K94" s="54"/>
-      <c r="L94" s="55"/>
-      <c r="M94" s="20"/>
-      <c r="N94" s="35"/>
-      <c r="O94" s="20"/>
-      <c r="P94" s="21"/>
-      <c r="Q94" s="56"/>
-      <c r="R94" s="57"/>
-      <c r="S94" s="58"/>
-      <c r="T94" s="92"/>
+      <c r="F94" s="42"/>
+      <c r="G94" s="42" t="s">
+        <v>82</v>
+      </c>
+      <c r="H94" s="42"/>
+      <c r="I94" s="87"/>
+      <c r="J94" s="46"/>
+      <c r="K94" s="47"/>
+      <c r="L94" s="48"/>
       <c r="U94" s="81"/>
-      <c r="Z94" s="53"/>
-      <c r="AA94" s="54"/>
-      <c r="AB94" s="55"/>
-    </row>
-    <row r="95" spans="2:28" x14ac:dyDescent="0.4">
+    </row>
+    <row r="95" spans="2:28">
       <c r="B95" s="80"/>
-      <c r="C95" s="68"/>
-      <c r="D95" s="69"/>
-      <c r="E95" s="70"/>
-      <c r="I95" s="91"/>
-      <c r="J95" s="53"/>
-      <c r="K95" s="54"/>
-      <c r="L95" s="55"/>
-      <c r="T95" s="92"/>
+      <c r="C95" s="88"/>
+      <c r="D95" s="89"/>
+      <c r="E95" s="90"/>
+      <c r="J95" s="56"/>
+      <c r="K95" s="57"/>
+      <c r="L95" s="58"/>
       <c r="U95" s="81"/>
-      <c r="Z95" s="53"/>
-      <c r="AA95" s="54"/>
-      <c r="AB95" s="55"/>
-    </row>
-    <row r="96" spans="2:28" x14ac:dyDescent="0.4">
-      <c r="B96" s="80"/>
-      <c r="C96" s="68"/>
-      <c r="D96" s="69"/>
-      <c r="E96" s="70"/>
-      <c r="I96" s="91"/>
-      <c r="J96" s="53"/>
-      <c r="K96" s="54"/>
-      <c r="L96" s="55"/>
-      <c r="Q96" s="43" t="s">
-        <v>151</v>
-      </c>
-      <c r="R96" s="44"/>
-      <c r="S96" s="25"/>
+    </row>
+    <row r="96" spans="2:28" ht="16.5" thickBot="1">
+      <c r="B96" s="91"/>
+      <c r="C96" s="92"/>
+      <c r="D96" s="92"/>
+      <c r="E96" s="92"/>
+      <c r="F96" s="92"/>
+      <c r="G96" s="92"/>
+      <c r="H96" s="92"/>
+      <c r="I96" s="92"/>
+      <c r="J96" s="92"/>
+      <c r="K96" s="92"/>
+      <c r="L96" s="92"/>
+      <c r="M96" s="92"/>
+      <c r="N96" s="92"/>
+      <c r="O96" s="92"/>
+      <c r="P96" s="92"/>
+      <c r="Q96" s="92"/>
+      <c r="R96" s="92"/>
+      <c r="S96" s="92"/>
       <c r="T96" s="92"/>
-      <c r="U96" s="81"/>
-      <c r="Z96" s="53"/>
-      <c r="AA96" s="54"/>
-      <c r="AB96" s="55"/>
-    </row>
-    <row r="97" spans="2:28" x14ac:dyDescent="0.4">
-      <c r="B97" s="80"/>
-      <c r="C97" s="68"/>
-      <c r="D97" s="69"/>
-      <c r="E97" s="70"/>
-      <c r="I97" s="91"/>
-      <c r="J97" s="53"/>
-      <c r="K97" s="54"/>
-      <c r="L97" s="55"/>
-      <c r="N97" s="19" t="s">
-        <v>147</v>
-      </c>
-      <c r="Q97" s="46"/>
-      <c r="R97" s="47"/>
-      <c r="S97" s="48"/>
-      <c r="T97" s="92"/>
-      <c r="U97" s="81"/>
-      <c r="Z97" s="53"/>
-      <c r="AA97" s="54"/>
-      <c r="AB97" s="55"/>
-    </row>
-    <row r="98" spans="2:28" x14ac:dyDescent="0.4">
-      <c r="B98" s="80"/>
-      <c r="C98" s="68"/>
-      <c r="D98" s="69"/>
-      <c r="E98" s="70"/>
-      <c r="I98" s="91"/>
-      <c r="J98" s="53"/>
-      <c r="K98" s="54"/>
-      <c r="L98" s="55"/>
-      <c r="M98" s="20"/>
-      <c r="N98" s="35"/>
-      <c r="O98" s="20"/>
-      <c r="P98" s="21"/>
-      <c r="Q98" s="53"/>
-      <c r="R98" s="54"/>
-      <c r="S98" s="55"/>
-      <c r="T98" s="92"/>
-      <c r="U98" s="81"/>
-      <c r="Z98" s="53"/>
-      <c r="AA98" s="54"/>
-      <c r="AB98" s="55"/>
-    </row>
-    <row r="99" spans="2:28" x14ac:dyDescent="0.4">
-      <c r="B99" s="80"/>
-      <c r="C99" s="68"/>
-      <c r="D99" s="69"/>
-      <c r="E99" s="70"/>
-      <c r="I99" s="91"/>
-      <c r="J99" s="53"/>
-      <c r="K99" s="54"/>
-      <c r="L99" s="55"/>
-      <c r="N99" s="19" t="s">
-        <v>152</v>
-      </c>
-      <c r="Q99" s="53"/>
-      <c r="R99" s="54"/>
-      <c r="S99" s="55"/>
-      <c r="T99" s="92"/>
-      <c r="U99" s="81"/>
-      <c r="Z99" s="56"/>
-      <c r="AA99" s="57"/>
-      <c r="AB99" s="58"/>
-    </row>
-    <row r="100" spans="2:28" x14ac:dyDescent="0.4">
-      <c r="B100" s="80"/>
-      <c r="C100" s="68"/>
-      <c r="D100" s="69"/>
-      <c r="E100" s="70"/>
-      <c r="I100" s="91"/>
-      <c r="J100" s="56"/>
-      <c r="K100" s="57"/>
-      <c r="L100" s="58"/>
-      <c r="M100" s="20"/>
-      <c r="N100" s="35"/>
-      <c r="O100" s="20"/>
-      <c r="P100" s="21"/>
-      <c r="Q100" s="56"/>
-      <c r="R100" s="57"/>
-      <c r="S100" s="58"/>
-      <c r="T100" s="92"/>
-      <c r="U100" s="81"/>
-    </row>
-    <row r="101" spans="2:28" x14ac:dyDescent="0.4">
-      <c r="B101" s="80"/>
-      <c r="C101" s="68"/>
-      <c r="D101" s="69"/>
-      <c r="E101" s="70"/>
-      <c r="I101" s="95"/>
-      <c r="J101" s="96"/>
-      <c r="K101" s="96"/>
-      <c r="L101" s="96"/>
-      <c r="M101" s="96"/>
-      <c r="N101" s="96"/>
-      <c r="O101" s="96"/>
-      <c r="P101" s="96"/>
-      <c r="Q101" s="96"/>
-      <c r="R101" s="96"/>
-      <c r="S101" s="96"/>
-      <c r="T101" s="97"/>
-      <c r="U101" s="81"/>
-    </row>
-    <row r="102" spans="2:28" x14ac:dyDescent="0.4">
-      <c r="B102" s="80"/>
-      <c r="C102" s="68"/>
-      <c r="D102" s="69"/>
-      <c r="E102" s="70"/>
-      <c r="U102" s="81"/>
-    </row>
-    <row r="103" spans="2:28" x14ac:dyDescent="0.4">
-      <c r="B103" s="80"/>
-      <c r="C103" s="68"/>
-      <c r="D103" s="69"/>
-      <c r="E103" s="70"/>
-      <c r="J103" s="43" t="s">
-        <v>86</v>
-      </c>
-      <c r="K103" s="44"/>
-      <c r="L103" s="25"/>
-      <c r="U103" s="81"/>
-    </row>
-    <row r="104" spans="2:28" x14ac:dyDescent="0.4">
-      <c r="B104" s="80"/>
-      <c r="C104" s="68"/>
-      <c r="D104" s="69"/>
-      <c r="E104" s="70"/>
-      <c r="G104" s="19" t="s">
-        <v>88</v>
-      </c>
-      <c r="I104" s="42"/>
-      <c r="J104" s="46"/>
-      <c r="K104" s="47"/>
-      <c r="L104" s="48"/>
-      <c r="U104" s="81"/>
-    </row>
-    <row r="105" spans="2:28" x14ac:dyDescent="0.4">
-      <c r="B105" s="80"/>
-      <c r="C105" s="68"/>
-      <c r="D105" s="69"/>
-      <c r="E105" s="70"/>
-      <c r="F105" s="20"/>
-      <c r="G105" s="20"/>
-      <c r="H105" s="20"/>
-      <c r="J105" s="53"/>
-      <c r="K105" s="54"/>
-      <c r="L105" s="55"/>
-      <c r="U105" s="81"/>
-    </row>
-    <row r="106" spans="2:28" x14ac:dyDescent="0.4">
-      <c r="B106" s="80"/>
-      <c r="C106" s="68"/>
-      <c r="D106" s="69"/>
-      <c r="E106" s="70"/>
-      <c r="G106" s="19" t="s">
-        <v>90</v>
-      </c>
-      <c r="I106" s="42"/>
-      <c r="J106" s="53"/>
-      <c r="K106" s="54"/>
-      <c r="L106" s="55"/>
-      <c r="U106" s="81"/>
-    </row>
-    <row r="107" spans="2:28" x14ac:dyDescent="0.4">
-      <c r="B107" s="80"/>
-      <c r="C107" s="68"/>
-      <c r="D107" s="69"/>
-      <c r="E107" s="70"/>
-      <c r="F107" s="20"/>
-      <c r="G107" s="20"/>
-      <c r="H107" s="20"/>
-      <c r="J107" s="56"/>
-      <c r="K107" s="57"/>
-      <c r="L107" s="58"/>
-      <c r="U107" s="81"/>
-    </row>
-    <row r="108" spans="2:28" x14ac:dyDescent="0.4">
-      <c r="B108" s="80"/>
-      <c r="C108" s="68"/>
-      <c r="D108" s="69"/>
-      <c r="E108" s="70"/>
-      <c r="U108" s="81"/>
-    </row>
-    <row r="109" spans="2:28" x14ac:dyDescent="0.4">
-      <c r="B109" s="80"/>
-      <c r="C109" s="68"/>
-      <c r="D109" s="69"/>
-      <c r="E109" s="70"/>
-      <c r="I109" s="86"/>
-      <c r="J109" s="43" t="s">
-        <v>85</v>
-      </c>
-      <c r="K109" s="44"/>
-      <c r="L109" s="25"/>
-      <c r="U109" s="81"/>
-    </row>
-    <row r="110" spans="2:28" x14ac:dyDescent="0.4">
-      <c r="B110" s="80"/>
-      <c r="C110" s="68"/>
-      <c r="D110" s="69"/>
-      <c r="E110" s="70"/>
-      <c r="F110" s="42"/>
-      <c r="G110" s="42" t="s">
-        <v>87</v>
-      </c>
-      <c r="H110" s="42"/>
-      <c r="I110" s="87"/>
-      <c r="J110" s="46"/>
-      <c r="K110" s="47"/>
-      <c r="L110" s="48"/>
-      <c r="U110" s="81"/>
-    </row>
-    <row r="111" spans="2:28" x14ac:dyDescent="0.4">
-      <c r="B111" s="80"/>
-      <c r="C111" s="98"/>
-      <c r="D111" s="99"/>
-      <c r="E111" s="100"/>
-      <c r="J111" s="56"/>
-      <c r="K111" s="57"/>
-      <c r="L111" s="58"/>
-      <c r="U111" s="81"/>
-    </row>
-    <row r="112" spans="2:28" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B112" s="101"/>
-      <c r="C112" s="102"/>
-      <c r="D112" s="102"/>
-      <c r="E112" s="102"/>
-      <c r="F112" s="102"/>
-      <c r="G112" s="102"/>
-      <c r="H112" s="102"/>
-      <c r="I112" s="102"/>
-      <c r="J112" s="102"/>
-      <c r="K112" s="102"/>
-      <c r="L112" s="102"/>
-      <c r="M112" s="102"/>
-      <c r="N112" s="102"/>
-      <c r="O112" s="102"/>
-      <c r="P112" s="102"/>
-      <c r="Q112" s="102"/>
-      <c r="R112" s="102"/>
-      <c r="S112" s="102"/>
-      <c r="T112" s="102"/>
-      <c r="U112" s="103"/>
+      <c r="U96" s="93"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4"/>
@@ -9749,12 +8853,12 @@
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="31.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:3">
       <c r="B2" t="s">
         <v>4</v>
       </c>
@@ -9762,7 +8866,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:3">
       <c r="B3" t="s">
         <v>6</v>
       </c>
@@ -9770,7 +8874,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:3">
       <c r="B4" t="s">
         <v>8</v>
       </c>
@@ -9778,12 +8882,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:3">
       <c r="C5" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:3">
       <c r="B6" t="s">
         <v>11</v>
       </c>
@@ -9791,7 +8895,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:3">
       <c r="B7" t="s">
         <v>22</v>
       </c>
@@ -9799,7 +8903,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:3">
       <c r="B8" t="s">
         <v>24</v>
       </c>
@@ -9807,7 +8911,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:3">
       <c r="B9" t="s">
         <v>30</v>
       </c>
@@ -9815,7 +8919,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:3">
       <c r="B10" t="s">
         <v>39</v>
       </c>
@@ -9847,13 +8951,13 @@
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="13.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.5" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:8">
       <c r="B2" t="s">
         <v>32</v>
       </c>
@@ -9876,7 +8980,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:8">
       <c r="B3">
         <f>POWER(2,32)</f>
         <v>4294967296</v>
@@ -9906,7 +9010,7 @@
         <v>1.3619251953323185E-4</v>
       </c>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:8">
       <c r="B5" t="s">
         <v>41</v>
       </c>
@@ -9929,7 +9033,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:8">
       <c r="B6">
         <f>POWER(2,64)</f>
         <v>1.8446744073709552E+19</v>
@@ -9959,7 +9063,7 @@
         <v>584942.41735507199</v>
       </c>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:8">
       <c r="C7" t="s">
         <v>43</v>
       </c>
@@ -9967,7 +9071,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:8">
       <c r="B8" t="s">
         <v>42</v>
       </c>
@@ -9975,7 +9079,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:8">
       <c r="B9" t="s">
         <v>45</v>
       </c>
@@ -9987,7 +9091,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:8">
       <c r="B10" t="s">
         <v>46</v>
       </c>
@@ -9999,7 +9103,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:8">
       <c r="B11" t="s">
         <v>47</v>
       </c>
@@ -10011,7 +9115,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:8">
       <c r="B12" t="s">
         <v>48</v>
       </c>
@@ -10023,7 +9127,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:8">
       <c r="B13" t="s">
         <v>49</v>
       </c>
